--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_379.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_379.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32655-d82494-Reviews-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>203</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Holiday-Inn-Express-Van-Nuys.h21558.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_379.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_379.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1011">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>PSG100</t>
+  </si>
+  <si>
     <t>07/04/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Marja D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r576945979-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t>We needed a hotel close to the University of Northridge (CalState Northridge). This hotel is located close to the freeway and the school is an easy drive, about 8 minutes away. We spent the afternoon in the pool area, very clean and nice furniture and considering the busy location it is a relaxing place with lovely trees and vegetation. The hotel is clean, spacious, comfortable, very pleasant staff, and ample parking. We walked to a restaurant close by and the area does have a homeless problem and next time we will probably Uber to restaurant. We will definately be back when we have events in the area, this hotel gives a lot of service and excellent value for the money.More</t>
   </si>
   <si>
+    <t>Chuck W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r575503992-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t>April 2018</t>
   </si>
   <si>
+    <t>Meandering_Fool</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r568199622-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -243,6 +255,9 @@
     <t>Didn't stay here.  Didn't get a chance to.   Called and spoke to Jerome who put me on hold where I was subsequently disconnected.  Called back again and he put me on hold again and I was disconnected again.  Called back a third time and he wanted to put me on hold again.  I said I could call back if he was busy. He told me to call back an hour later... I actually gave him two hours before I called back where he then asked me to call back five minutes later... I gave him ten minutes and called back where he said he was still busy and then he said he would take down my number and promised he'd call me back.  Never heard from him.  Maybe business is too good...More</t>
   </si>
   <si>
+    <t>manytitles</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r560314245-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -261,6 +276,9 @@
     <t>February 2018</t>
   </si>
   <si>
+    <t>John M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r558934600-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -285,6 +303,9 @@
     <t>As an IHG rewards member, we booked 2 rooms here for 2 nights... and one of the room’s shower doesn’t work. When we are leaving for the day I told to the front desk about the shower issue and he said they will check it right away. When we returned early evening, the shower still doesn’t work. We ended up using the other shower room. We gave up and don’t wanna bother since its evening and the “maintenance” supposed to fix it while we were gone.... unfortunately thats not the case. Very unprofessional, incompetent, terrible customer service from front desk employees. Also the sink doesn’t work properly in the bathtub. One of the wall outlet doesn’t work either.What could else go wrong?The housekeeper was supposed to give us extra towels... never came back! They removed the “bacon” on the next breakfast service!Two nights of misery!More</t>
   </si>
   <si>
+    <t>josemezav</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r548794223-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -306,6 +327,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>barker001</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r543431577-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -336,6 +360,9 @@
     <t>Myself and two colleagues stayed for 4 nights while we attended a training course nearby. The hotel was clean throughout and the rooms comfortable. There was some noise from the nearby interstate, although it was not too intrusive. The front desk and breakfast staff were all really friendly and helpful, making it a pleasant stay. The breakfast buffet had a very good choice including freshly made pancakes and pastries.If there was one facility missing which would be very welcome, it would be a bar. Most of the hotel residents were business travellers of some kind, and there is nothing more welcome than enjoying a beer with colleagues at the end of the day. There were no bars (other than topless ones, so it seemed...) within walking distance of the hotel, so to have such a facility within the hotel would undoubtedly be popular. Overall though, an enjoyable stay, and we would return in the future if in the area.More</t>
   </si>
   <si>
+    <t>klhpcola</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r529749795-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -363,6 +390,9 @@
     <t>During the course of three days, my daughter and I drove 2,200 from Atlanta to LA, with two cats. So, I desperately needed a peaceful, cat-free hotel room, a comfortable bed, and a good breakfast. The Holiday Inn Express was only 5 miles from my daughter's apartment. The breakfast was tasty and convenient. I rested well both nights I was in Van Nuys.More</t>
   </si>
   <si>
+    <t>Douglas H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r480201708-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -390,6 +420,9 @@
     <t>Stayed here from Monday through Friday while doing some work at Anheuser-Busch.  The neighborhood is iffy at best but is convenient to brewery which is why I stay there when in the area. My room was small but clean and well furnished. The mini refrigerator was really nice. The shower curtain was the typical H.I. express type and one morning after showering I discovered  that I had flooded the bathroom floor. The free breakfast was good and typical out a little earlier than the 6:30 a.m. start time. Will stay here again when I return in June.More</t>
   </si>
   <si>
+    <t>Mark B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r480102694-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -408,6 +441,9 @@
     <t>The hotel is clean. But a seven story hotel should have sprinkler system. Vending machines didn't work. Only one in the lobby. Most holiday inn hotels have a little store area in lobby. Not here. Staff not helpful. Price is deceptive because they charge for for extra person over one. Would not stay here again. More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r476275278-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -435,6 +471,9 @@
     <t>The hotel was clean and tidy. The staff was helpful and friendly. Morning complementary breakfast was was good with many health choices. Very visible security. All around good choice for lodging. There was a swimming pool in the rear of the hotel.More</t>
   </si>
   <si>
+    <t>klain64jp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r466312951-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -462,6 +501,9 @@
     <t>Everything in this property was excellent, close to the freeway, near restaurants, breakfast was delicious ,front desk staff always with a smile and greeting us. nice music in lobby, accomodated business center for my needs, ladies at the breakfast were very nice and helpfull... and never stays behind those delicious cinammon rolls holliday inn provides for breakfast :)More</t>
   </si>
   <si>
+    <t>4mycountry96</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r465316459-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -480,6 +522,9 @@
     <t>Housekeeping got us some towels fast after a phone call to the lobby.  The business center computer was fast. Many was nice at the lobby and John told us some jokes at breakfast. I enjoyed the stay and would come back again. My wife liked the gym and pancakes.More</t>
   </si>
   <si>
+    <t>woorker47</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r464042264-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -504,6 +549,9 @@
     <t>Great staff very friendly, Fast wifi, clean rooms, Great breakfast, enjoyed the pool and gym. Lulu and Ellen were nice and Maria from the breakfast area was nice to my kids. There was plenty of parking. Large parking lot. Restaurants right next door did not have to drive anywhere. right off the freeway great location. Will be returning soon.More</t>
   </si>
   <si>
+    <t>Traveller007Finland</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r449275249-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -531,6 +579,9 @@
     <t>We booked this hotel via IHG website, easily. The reception was very, very slow and it took a lot if time to us checked in. Amazing experience.The room and breakfast were just like they are in any other HI Express. No surprises.This is one of the reasons why to use HI Express. Anyway in this case the reception was too slow.More</t>
   </si>
   <si>
+    <t>jt_home</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r446775778-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -549,6 +600,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>britniea2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r441563786-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -573,6 +627,9 @@
     <t>We stayed 4 nights at the Holiday Inn Express in Van Nuys.  The rate was excellent, the rooms were very nice, the bed was comfortable, and the service was very good.  The breakfast was complementary, and was good.  We were very pleased with this hotel, and will stay there again.More</t>
   </si>
   <si>
+    <t>TheVez5</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r436272795-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -591,6 +648,9 @@
     <t>2 night stay with hubby &amp; teen to attend UCLA family weekend. Hotels in the area near UCLA are scarce and expensive, so we had to go farther away.The location was actually not too far and being close to the freeway was convenient. The area it's located seems sketchy by appearance, but we didn't encounter any problems. The hotel inside is nice and clean. Room 706. The room décor was nice. Our TV didn't work when you tried to change the channel, but we weren't in the room long enough to complain about it. Our beds were comfy &amp; we liked the selection of pillows &amp; cases were labeled firm or soft. The bathroom was a little snug, but the features were nice &amp; updated with Bath &amp; Body products. Only my husband ate breakfast there &amp; he enjoyed it. Better than continental and kept stocked. They have a promo running that breakfast is served until noon! We liked the infused water in the lobby and the staff was always friendly to us as we came &amp; went quite a bit. I really liked the way the breakfast area was decorated.We enjoyed our stay and would recommend.More</t>
   </si>
   <si>
+    <t>Ling L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r435710083-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -609,6 +669,9 @@
     <t>Tiny bathroom, very uncomfortable to take a shower. Terrible customer service from front desk to the manager. Called multiple times but never get a call back. Didn't meet HIE standard at all. Will never stay there again.More</t>
   </si>
   <si>
+    <t>Dan d</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r435308938-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -633,6 +696,9 @@
     <t>We chose this hotel because we had to be in Panorama City. At first, things didn't look too good. The elevators are ancient and seem designed for freight. The room air conditioning comes out of contraption by the window that sounds like a factory blower. (At least it drowns out the sound of the freeway.) Clearly, this is an older property that has been clumsily renovated. The make-your-own pancake breakfast is pretty pathetic. You might be better off walking to the little Taco Bell branch beside the hotel. Over a few days' stay, however, you begin to appreciate that the rooms are kept clean and the staff is friendly and helpful.More</t>
   </si>
   <si>
+    <t>darlingm77</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r430203855-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -657,6 +723,9 @@
     <t>I flew to California from Florida for a 4 day mini vacation to meet my sister. My flight was delayed so I called the hotel to let them know my sister would be arriving before me but the FD agent Ali something was very rude to me &amp; said "if you're not with her she can't get the employee rate, I will charge her the full rate of $219 per night." I explained the situation regarding my flight to Ali &amp; asked if he could please make an exception just this one time until I could get there to show my ID, I told him I knew IHG's policy very well since I've been with them for about 12yrs working as a FD Supervisor, a FD Manager &amp; a FD Operations Manager. Ali refused to help me even when I offered to fax him a copy of my ID &amp; flight information to prove that I wasn't lying to him, he refused to let me speak with his GM when I asked him to &amp; he placed me on hold twice for about 10mins each time; to top it all off I was still charged the full rate even after I stopped by the FD with my ID, the FD agent still refused to honor my employee rate &amp; credit my account back &amp; their GM never called me back after leaving several voicemails. (The FD agents need to have...I flew to California from Florida for a 4 day mini vacation to meet my sister. My flight was delayed so I called the hotel to let them know my sister would be arriving before me but the FD agent Ali something was very rude to me &amp; said "if you're not with her she can't get the employee rate, I will charge her the full rate of $219 per night." I explained the situation regarding my flight to Ali &amp; asked if he could please make an exception just this one time until I could get there to show my ID, I told him I knew IHG's policy very well since I've been with them for about 12yrs working as a FD Supervisor, a FD Manager &amp; a FD Operations Manager. Ali refused to help me even when I offered to fax him a copy of my ID &amp; flight information to prove that I wasn't lying to him, he refused to let me speak with his GM when I asked him to &amp; he placed me on hold twice for about 10mins each time; to top it all off I was still charged the full rate even after I stopped by the FD with my ID, the FD agent still refused to honor my employee rate &amp; credit my account back &amp; their GM never called me back after leaving several voicemails. (The FD agents need to have some proper Customer Service training including their GM!!)I'm not just an IHG employee but also a Priority Club Gold Member for over 8yrs now &amp; I wasn't even recognized as one. I have never had such a TERRIBLE customer service experience at an IHG hotel before &amp; We are NEVER staying here again &amp; I wouldn't recommend it to ANYONE, EVER!!!! Thanks for messing up our mini vacation..... this was the WORST STAY EVER!!!!!!!!More</t>
   </si>
   <si>
+    <t>Chris S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r429514123-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -681,6 +750,9 @@
     <t>Save your money.  I found out the hard way that Van Nuys is a scary part of LA--and the less than friendly service at this hotel doesn't make it any more attractive. It's obvious this is an old Holiday Inn with a very poor make up job. Instead of replacing the tubs,  they've tried to recover them with some kind of epoxy paint.  The fixtures are dated and functional  poorly. It feels like a renovation job gone bad.More</t>
   </si>
   <si>
+    <t>Christopher G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r417652748-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -697,6 +769,9 @@
   </si>
   <si>
     <t>August 2016</t>
+  </si>
+  <si>
+    <t>Jai G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r389331182-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
@@ -730,6 +805,9 @@
 I can understand them being confused and thinking that...First off, for some reason I'm not able to write a review with my confirmation number. I'm guessing they know they screwed up so bad that I would write them a honest and truthful review about how much this place is not friendly towards people with disabilities.I booked my stay here because it was close to family and I regret it since checkout. When I first checked in I informed the receptionist that I have PTSD and my brother has Grand mal seizures and we both suffer from anxiety. We both medicate with medical marijuana and he takes something else entirely for his seizures. I asked if we would be allowed to take medication in the room or outside on the property and they told me that I could not. I was ok with this, but I still snuck outside for a toke in the back parking lot every so often. I thought everything would be fine and stored some of my flower in the room in my luggage along with a ceramic roach clip that probably would have a half burned marijuana cigarette in it. I'm not sure of this because I usually smoke the whole thing, just not always. I smoke every morning and evening, so my clothes do have an odor and I am changing out everyday leaving my dirty laundry in my room in my luggage.I can understand them being confused and thinking that I'm smoking in my room sure, but what I can't understand is how they treated me and my brother when I was checking out and trying to explain our side of the story. During checkout I was trying to explain to the receptionist that I had a charge on my room for an extra person. I accidentally booked the room for my brother, his girlfriend, my nephew and myself. The room was only for me and my brother and I was trying to get the charges adjusted. That's when he told me about my smoking fee and how the window was open and there was ashes on the ground near the window. Now I did have the window open yes, but last time I checked. That doesn't merit a $100- fee, or is this something new here?The morning I checked out I woke up like any day sort of, my brother is getting ready in the bathroom so I'm starting to pack up. I take a sip of some cold water and I get very nauseous. I usually just take a few puffs or drink some milk to get over that feeling and don't vomit. Well this isn't the case. I have no milk at all, but I have plenty of marijuana. I threw up 4 times and finally got my bearing, took my half joint and went to the pool in the back. On the way to the pool I encountered two other guests coming back into the hotel. I was outside at around 830am, no one was around me and I lit up so I'd stop throwing up. After I was done which really just took a few minutes. I went back upstairs and got my things and was ready to check out. I did clean out the ice bucket that I threw up in.When I tried to check out and was attacked with allegations of what I had done. I wasn't even given a chance to explain what I was going through or the fact that they were causing me to have further anxiety issues. It got to the point that me and my brother had to tell them to calm down and that I have PTSD and he has grand mal seizures. If he gets worked up too much he can go into a seizure, and if I get worked up too much I don't even know what I'm capable of to be quite honest. That's why I always try to do things with a sense of ration. I was not getting that here and knew it would only get worse so I left and told them to bill my card on file. They did bill my card, with the smoking fee and the extra people that were not even in my room. I talked to them later that day after talking with IHG customer support and they said that I was going to be charged and there was nothing I could do about it. I got a charge on my card for $443.52 by the hotel even after talking to their customer service relations manager. I talked to IHG again the following day and disputed the credit card charges. This time IHG assured me that I would be refunded the total amount and awarded me an additional 5000 rewards points. I still have the charge on my account and have not seen any changes applied to my rewards membership yet. I have also been a member of this rewards program for about 4 years now. I've used IHG hotels for that time and have never had an issue till I stayed at this hotel. The person I dealt with that gave me the most problem was a receptionist named AnaMore</t>
   </si>
   <si>
+    <t>HotelGuy2000</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r386846549-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -754,6 +832,9 @@
     <t>I have stayed at many HIE locations and this one had a really friendly staff.  Juan checked us in on Saturday night for our one night stay and he was so nice.  He asked me if I wanted a specific floor and room location.  FYI all rooms are on an upper level. The housekeeper in the morning was also super friendly.The hotel is very clean and has the typical HIE breakfast.  The bathrooms were on the smaller side than your typical HIE but, all in all, I was very happy!  Thank you!More</t>
   </si>
   <si>
+    <t>mail4tola</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r383534042-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -772,6 +853,9 @@
     <t>my room was spacious. i had all the quiet and privacy i needed for my business trip. breakfast was lovely with lots of people in the restaurant that made it like a mini party. i came back the next day to check in again.More</t>
   </si>
   <si>
+    <t>Fernanda F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r375296548-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -799,6 +883,9 @@
     <t>Great Service, Great Breakfast, GREAT BED.  VERY VERY COMFORTABLE. Fan was nice and loud. I usually turn on fan to distract any outside noise. It was very helpful. Only downside:I wish they had the fresh made hot oatmeal. It was packets.  Also, not so good neighborhood. They have security at nite which is great. But dont try to walk after 8PM. More</t>
   </si>
   <si>
+    <t>jotabe1789</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r373877167-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -827,6 +914,9 @@
   </si>
   <si>
     <t>While waiting for my final accommodation in San Fernando Valley, i spent 2 nights in this hotel. It had all i needed, including wifi (which many hotels still want to charge as an extra... not here).Everything was clean, breakfast was good, and the staff were pleasant and helpful.More</t>
+  </si>
+  <si>
+    <t>CharlieCN</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r369907875-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
@@ -857,6 +947,9 @@
      The hotel is clean enough - it's obviously an old building, but it was painted with an updated color-scheme and the rooms were furnished with newer furniture.  However, we were disappointed when we got to our room, the space where there should have been a refrigerator was empty, and there was no microwave.  We found that unusual since HIEs ALWAYS have those appliances in each room.  The front desk and maintenance were great and delivered both a fridge &amp; microwave.  However, they...Well, I wish I could say my review would be different that the others, but, alas, I cannot.  We didn't have too many choices when determining where we were going to stay due to the location of our event and the need for secure parking.  Usually, the Holiday Inn Expresses are perfect for us.  However, this one, not so much.  Yet, the customer service was totally AWESOME, for the most part and the shower's water pressure was to die for!  I'm so torn!     Like other reviews, the staff are PHENOMENAL - Graeula(sp?) &amp; Ellen checked my husband in and, when I arrived 20 minutes later, the ladies knew who I was and remembered the room number.  YAY!  Housekeeping, security, and the breakfast staff were very friendly and welcoming.  We were cheerfully greeted by the front desk each time we entered and each time we left the hotel.  That part of customer service is EXCELLENT and they excelled there.     The hotel is clean enough - it's obviously an old building, but it was painted with an updated color-scheme and the rooms were furnished with newer furniture.  However, we were disappointed when we got to our room, the space where there should have been a refrigerator was empty, and there was no microwave.  We found that unusual since HIEs ALWAYS have those appliances in each room.  The front desk and maintenance were great and delivered both a fridge &amp; microwave.  However, they needed to go find an extension cord because there was no outlet close enough.  Since the surge protector was just a bit too short, we had to turn our garbage can over to set the protector on it.  Otherwise, it was just kinda hanging in space and the plugs pulled out.     Our first morning was rough - it started with our toilet overflowing at 4:30 AM and it taking the front desk and security men quite a long time to find a plunger.  When they finally did, they handed it to me.  Although it was in a plastic bag, it was still an "ick' factor!  After 30 minutes of my husband trying to plunge our toilet (while standing on wet soiled towels), he gave up.  By the time we got back maintenance would have had it all fixed - YAY!     The final issue is that there's additional $10 fee for the second person.  It felt almost like a cab fare or a "pet fee" - you can stay for a set price, but if you bring your spouse/partner/child, then you pay extra - which is silly.  The room is occupied whether there's one person or two.  Oh well, we knew that when we booked the room.     I just can't decide if the personal and PHENOMENAL customer service is enough to overcome the negatives.More</t>
   </si>
   <si>
+    <t>PhoenisSunDog</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r357100914-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -884,6 +977,9 @@
     <t>Rooms were clean and large. Staff was friendly and helpful. Breakfast was usual Holiday inn express fare. In a good location for business. About 35 minutes from airport. Close to express way. Could hear road noise in room. I would stay here again if in area. More</t>
   </si>
   <si>
+    <t>David K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r356811565-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -902,6 +998,9 @@
     <t>The people at the hotel were wonderful.  The service was great and the rooms were clean.  The breakfast was consistently hot and fresh over the week that we stayed there. Every time we entered the hotel lobby, we were greeted by someone that worked at the hotel &amp; always had a smile.  Would recommend this hotel!More</t>
   </si>
   <si>
+    <t>jiho71</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r356345250-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -923,6 +1022,9 @@
     <t>Very Convinient, nice and clean. Breakfast its excellent. People staff from hotel are really friendly and cares about our staying to makesure we have a pleasant staying... greatfull with the front desk attendant people who helps me with everything i need help with about my staying "Juan &amp; Manny"..... Breakfast Staff attendant it's very Friendly....More</t>
   </si>
   <si>
+    <t>Chris O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r347001893-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -948,6 +1050,9 @@
   </si>
   <si>
     <t>This place is a example of what you would not expect from a branded hotel. The room was dirty smelly and what you would expect from a hotel that has hourly rates. They are taking advantage of the gas leak and gouging people for $250 plus a night for a $60 room.Dont stay in this place if you are not used to staying in cheep dirty $40 rooms. I gave the plaece an average rating on location because of it proximity to the freeway but if you dont like the rooring noise of tractor trailers all night stay away.More</t>
+  </si>
+  <si>
+    <t>braunzie</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r345271904-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
@@ -996,6 +1101,9 @@
 The room had window heat and cooling operated by either a remote sensor of the unit itself. The lower wall section that housed the unit was a very wide window section the was filled in to fit...I wanted to leave a review on their website but got this."The Holiday Inn Express Website service you were looking for is currently unavailable, but we hope to have it up and running again soon.Please try again later, or contact us at 1 888 HOLIDAY to book a hotel stay or to make changes to an upcoming reservation.Thank you for your patience!"This review is comprehensive. We were displeased to find this hotel as expensive per night as it is. There must be an algorithm for pricing as most other hotels fluctuated similarly per day in price- the days of flat pricing seem gone. Check in was quick and easy.The first thing I noticed was inside the elevator. The pungent smell of machine room was overpowering.We arrived to floor three. The gray paint over wall paper was interesting. I noticed that the ice maker drain line was discharging water onto its electrical line.This is an older building. I could tell by the concrete floors and ceilings being exactly 8 feet with no room for future services.We entered room 317 and saw newer furniture. It was typical but what struck me was the refrigerator outside its cabinet/dresser.The room had window heat and cooling operated by either a remote sensor of the unit itself. The lower wall section that housed the unit was a very wide window section the was filled in to fit this unit. Usually they are wall sections to conserve energy.I looked in the bathroom and saw granite on the walls and counter top. The floor was 2x2 tile. The marble threshold was on the inside of the door not the outside as customary and you could see carpet in the bathroom. I was looking for the fan controls and saw none. I did note the small vent opening on the wall near the door and wondered how well it would work. We found out the next morning as the mirror remained fogged for 30 minutes and the drips on the ceiling were in the process of mildew (What a bad design).The shower head was raised with a "shower up" arm and the hole in the wall was not covered by the trim piece and could let water enter the interior of that cavity.The toilet seat was not adjusted straight and was tightened crooked. The toilet was low flow but not the sink faucet or the shower head. Many of the shower head sprays were clogged. The toilet still had the sticker on its side.Closer looks at the bathroom revealed a cracked sink basin and broken piece out of the granite top which kinda blended in given the mottled look. It was sharp. Whoever caulked the bathroom seams needs additional training as it was not uniform (bad lipstick). The inside corners were not clean. Wall patches over the years were obvious.The shower rod was bent.Inside the main room we were interested in the pillows that said "soft" and "firm". All the pillows were the same. Maybe just white pillow cases are in order.The smoke detector in the room also was re-positioned and bad patch job was evident. The crown molding was not installed without liberal use of caulking. An access panel for the next unit was not trimmed as it could be. An electrical access cover was blocked by the crown molding over the window.The air conditioning was noisy.The continental breakfast was lack luster. While everything was hot or cold as it is supposed to be, the quality of food was poor. Eggs in a bottle scrambled is an example. Eggos are another example. Why can't guests make their own? I did like the fresh fruit offering.More</t>
   </si>
   <si>
+    <t>jenslp74</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r339675860-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1017,6 +1125,9 @@
     <t>As others have said, the place is decent to lay your head, but the internet service was non-existent. Webpages would not load.  The blowers in the rooms are so loud I wish I had earplugs with me! Overall, it was clean and the bed was comfortable. Fridge in room was nice addition. The breakfast is terrible, and our expectations were low to begin with. Food was close to inedible, and not enough seats when the hotel is busy. Ended up going out for breakfast which is kind of a bummer considering I specifically chose a place with an included breakfast.  Staff there was good. Don't think it's worth the price paid. Side note, I also did not care for the fact that the IHG website charges a $10 additional person fee per day when there is more than ONE person in the room. You are asked to enter the number of guest when searching for a room (I entered two), and was shown a rate of $***, but on the check out page in small print it indicates there will be a $10 fee per night for any additional persons over ONE. I found that a bit deceptive and ridiculous. An extra charge for two people in a King size room!? The rate shown should be based on the number of guests indicated in the initial search.  Not a rate for one person and then tack on a fee.  So...As others have said, the place is decent to lay your head, but the internet service was non-existent. Webpages would not load.  The blowers in the rooms are so loud I wish I had earplugs with me! Overall, it was clean and the bed was comfortable. Fridge in room was nice addition. The breakfast is terrible, and our expectations were low to begin with. Food was close to inedible, and not enough seats when the hotel is busy. Ended up going out for breakfast which is kind of a bummer considering I specifically chose a place with an included breakfast.  Staff there was good. Don't think it's worth the price paid. Side note, I also did not care for the fact that the IHG website charges a $10 additional person fee per day when there is more than ONE person in the room. You are asked to enter the number of guest when searching for a room (I entered two), and was shown a rate of $***, but on the check out page in small print it indicates there will be a $10 fee per night for any additional persons over ONE. I found that a bit deceptive and ridiculous. An extra charge for two people in a King size room!? The rate shown should be based on the number of guests indicated in the initial search.  Not a rate for one person and then tack on a fee.  So watch out for that.  The sweet deal you think you are getting probably isn't so sweet.More</t>
   </si>
   <si>
+    <t>YVR_orange</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r331962783-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1041,6 +1152,9 @@
     <t>The staff was amazing!  Manny at the front desk really take care of us, truly going above and beyond.Upon pulling into the parking lot, there was a sprinkler that has bursted it looked like. There was water spewing everywhere!The smell of marijuana was everywhere, the smell was overpowering. I would not return to this property ever. More</t>
   </si>
   <si>
+    <t>JamieLong</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r330777524-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1065,6 +1179,9 @@
     <t>I have no issues with the hotel itself, or the staff either. Not a location I would choose if it had not been for business. Don't think about walking anywhere, just Uber to some nicer areas/restaurants.My problem is a reoccurring noise every 3 minutes throughout my stay. The sound is unbelievable. It is like a mechanical whirring that is extremely loud. I am not sure if it is linked to the air-conditioning, but in room 604 it was unforgivable. As a light sleeper, there was no way I was going to sleep through this. It is a problem that needs to be addressed immediately. Otherwise the hotel would be perfectly acceptable.More</t>
   </si>
   <si>
+    <t>Ernestine A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r330746204-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1077,6 +1194,9 @@
     <t>I would like to say that the staff was awesome. Our stay was sudden, and the complementary items were greatly appreciated. We were not familiar with the area, and everyone was just so understanding and helpful. Room was clean, up to date, cozy, and breakfast was on point with a great variety.</t>
   </si>
   <si>
+    <t>dadsthoughts</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r327745576-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1101,6 +1221,9 @@
     <t>One of the stand outs with this hotel was how friendly and helpful the employees were.  Someone that seemed to be a manager stood near the desk in the morning looking for someone to help and offering great service.  Their business center worked well too.  I got the impression, however, that the ownership wasn't interested in investing too much more in the property.  It was a little dirty, not from effort to clean but from being dirty.  The TV was too - they are in the pornography distrubution buainess through the old Lodgenet network.  Many Holiday Inn properties are moving away from that because its not worth scrapping for crums with online porn sites and doesn't help with a family friendly environment.  It was fine for a business trip, but would want something cleaner for the family.More</t>
   </si>
   <si>
+    <t>Tracyumm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r321492339-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1128,6 +1251,9 @@
     <t>Holiday inn express is usually my go to hotel, but this one did not satisfy as expected.  The bed was so hard I suffered from a sore back each morning we got up.  If you are built like a 2x4 these beds are for you.  The staff was sweet and offered to let us try another room, but they stated the beds are standard. We stayed here two nights and although it wasn't an awful stay but it wasn't the best either.  Kind of a far removed area with no restaurants, except for Denny's and Taco Bell.   More</t>
   </si>
   <si>
+    <t>Cody D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r301247241-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1146,6 +1272,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>Banny81</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r294743385-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1173,6 +1302,9 @@
     <t>The Holiday Inn Express franchise provides no restaurant or bar and, usually nothing in the immediate area so taxi's are required to visit restaurants or bars.This Express didn't even have any rooms with kitchenette. A fridge had to be ordered.Only breakfast provided and, in this case, a very poor one.Rarely was there any scrambled egg or bacon on the breakfast menu.Only rubbery thin burgers or disgusting and dangerous Turkey Sausage.Even when there was the egg was rubbery and the bacon not crisp.Few of the staff spoke English and those that did understood little.Where mrifontabla found the spacious parking I've no idea, it was always full!He must have only stayed one night, we had to suffer it for two weeks!The maid service was poor, very rarely replenishing tea and coffee supplies or cupsand drink glasses. And, didn't know how to handle a vacuum cleaner, obviously.In all, a very poor experience.More</t>
   </si>
   <si>
+    <t>Kishan P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r290581628-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1194,6 +1326,9 @@
     <t>I had an excellent checkin prices with Manny. He was absolutely amazing. Super friendly and intelligent. He knows how to take care of guests. Front desk is the heart of any hotel and he knew how to prove that. He took care of any of my requests in just a matter of 2 minutes. I will  never forget this stay. Thank you management for an amazing stayMore</t>
   </si>
   <si>
+    <t>hbhil</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r289020564-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1218,6 +1353,9 @@
     <t>My room smelled awful. The internet worked in the morning, but not in the evening. The fitness room is a closet with a couple of treadmills, a bike, an elliptical, and a deflated stability ball. I could not possibly recommend this hotel to other travelers.More</t>
   </si>
   <si>
+    <t xml:space="preserve">djphaneuf </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r274812313-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1245,6 +1383,9 @@
     <t>Booked hotel for a basketball tournament at CS Northridge.  It was the only decent hotel I could find with two queen beds available.  Was a little apprehensive based on other reviews but ended up fully satisfied.  Rooms were clean, beds comfortable, staff friendly.  Free internet, free parking, free breakfast.  Others had complained about breakfast but I found it to be fine with a wide variety of choices.  Neighborhood mostly industrial but no issues with safety or parking.  Some mentioned presence of securit as a bad thing but I liked seeing them around.  Some mentioned road noise but I found it to be minimal.  Still easy on and off 405.   Would recommend or stay here again.More</t>
   </si>
   <si>
+    <t>Leendar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r271430436-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1269,6 +1410,9 @@
     <t>The HI Express in Van Nuys is all that I needed it to be.  Clean, nice people, good room, whole place re-decorated well, breakfast was good, quiet room, good bed.  What more do you need?  Accessibility was easy.More</t>
   </si>
   <si>
+    <t>tjandnina</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r271233799-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1293,6 +1437,9 @@
     <t>This hotel was an unexpected surprise! Location was right off 405 &amp; Roscoe, staff was outstanding esp. Anu, bed was firm &amp; comfortable, breakfast was very good, and price was a good value. We were totally pleased!More</t>
   </si>
   <si>
+    <t>o0oDianao0o</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r262609841-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1312,6 +1459,9 @@
   </si>
   <si>
     <t>On a busy, spring break night, the local Hilton, Four Seasons and Marriott were all sold out, so my Mom and I ended up at this Holiday Inn. I had only stayed at one Holiday Inn before, and that was the one in Buena Park near Knotts Berry Farm, many years ago  (it was nice but the rooms seemed a bit dated). However, this location has a clean, bright lobby, smiling faces behind the desk, spotless rooms and I didn't hear a peep while I was in the room, which was most of the day and night since I was sick. At check out, an especially friendly and professional staff member named Angel helped me to my moving truck with my pile of disorganized bags. Angel and the other staff all went above and beyond to make sure I was happy, which was an incredible comfort having been in the middle of a move and unfortunately very sick. Also, when the cleaning crew knocked on my door to ask if I needed cleaning, I said no thank you, and they quickly left me alone. So many cleaning staff at other chain hotels argue and ask questions. I really appreciate the privacy and safe feeling given by the respectful cleaning staff. Thank you, Holiday Inn and staff (especially Angel) for making me feel safe and at home. I would highly recommend this location to anyone. I didn't even get to try...On a busy, spring break night, the local Hilton, Four Seasons and Marriott were all sold out, so my Mom and I ended up at this Holiday Inn. I had only stayed at one Holiday Inn before, and that was the one in Buena Park near Knotts Berry Farm, many years ago  (it was nice but the rooms seemed a bit dated). However, this location has a clean, bright lobby, smiling faces behind the desk, spotless rooms and I didn't hear a peep while I was in the room, which was most of the day and night since I was sick. At check out, an especially friendly and professional staff member named Angel helped me to my moving truck with my pile of disorganized bags. Angel and the other staff all went above and beyond to make sure I was happy, which was an incredible comfort having been in the middle of a move and unfortunately very sick. Also, when the cleaning crew knocked on my door to ask if I needed cleaning, I said no thank you, and they quickly left me alone. So many cleaning staff at other chain hotels argue and ask questions. I really appreciate the privacy and safe feeling given by the respectful cleaning staff. Thank you, Holiday Inn and staff (especially Angel) for making me feel safe and at home. I would highly recommend this location to anyone. I didn't even get to try to free breakfast, but I heard it is great!More</t>
+  </si>
+  <si>
+    <t>Virgoz28</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r261241600-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
@@ -1353,6 +1503,9 @@
 The pool is not heated so was not really usable. Also there is no spa/hot tub and there were no towels in the pool area to use the day I went to...First off HUGE thank you to Ali for getting my daughter's softball team from MN into rooms in the middle of the night. without reservations, after they chose to leave another hotel. In addition accommodating the team, he also ensured those parents that had joined the team (me included) were also able to get rooms, again without reservations. This made all the difference in our trip to CA.Positives: Location - the hotel was very easy to get to being right off of 405.My room was clean, and the bed/pillows very comfortable.The staff were all very pleasant and helpful.The breakfast offered a good variety of items.Good value for the price.Negatives: Location - the hotel is in fact off 405, and another busy street. So there is quite a bit of traffic/street noise. And a car alarm kept going off in the parking lot of one of the businesses behind the hotel.The neighborhood area overall is not the best - but there's 24 hour security on site. I never felt unsafe, but wouldn't walk around at night in that area.My room had one room between it and the elevator mechanical room. I could hear the mechanics every time the elevator was used.The pool is not heated so was not really usable. Also there is no spa/hot tub and there were no towels in the pool area to use the day I went to lay in the sun for a bit.There was no non-sugar free syrup out one of the days so I asked for some and was given an open regular-sized bottle that was very sticky (the next day packets were provided, which was better).Overall, I would stay at this hotel again.More</t>
   </si>
   <si>
+    <t>JJDAY</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r260921345-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1375,6 +1528,9 @@
 Only issue I ran into was..not being told what was being charged to my card before running it.  Apparently there is a refundable (if you don't rent movies or destroy anything) room deposit of almost 30% of your nightly room charge.  Maybe it was...Very nice accommodations if your in need of something clean with basic amenities.  All employees that I came in contact with were friendly.  Lobby area is inviting and was quiet during my overnight stay.  Check in time is 2 pm, which is a nice. This location is off a busy main street, but the hotel sits away from all the street traffic, so I wasn't bothered by noise.  Surrounded by mostly daytime businesses so the neighborhood was pretty quiet at night, but my stay was during a weekday too?  Denny's and Taco Bell are just a few steps away.My room was very nicely decorated, lounge chair, small table, desk/chair, dresser, bench seat, refrigerator, iron &amp; board, coffee pot/coffee/tea, individually wrapped paper cups, ice bucket, clean linens with lots of pillows, large flat screen w/HBO, in wall AC/Heater which worked well.  Bed slept heavenly too!  Small bathroom but sufficient and stocked with white citrus soap, shampoo, conditioner &amp; shower cap.  No closed in closet, but a nice set up for those who need to hang items.  Soda vending &amp; Ice machine is just off elevators.  Free parking, breakfast and smoking area just outside of hotel entrance.  Only issue I ran into was..not being told what was being charged to my card before running it.  Apparently there is a refundable (if you don't rent movies or destroy anything) room deposit of almost 30% of your nightly room charge.  Maybe it was stated on the HI website and I didn't read it?  Be careful and read everything, so your not surprised by any additional charges.  Nightly rate seemed a bit high, but considering their is NO competition in the area, the hotel was very nice, and it was a pleasant stay, I'd gladly spend my money here any and every time!More</t>
   </si>
   <si>
+    <t>Jay S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r258869984-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1399,6 +1555,9 @@
     <t>The Holiday Inn Express in Van Nuys was my first experience with a Holiday Inn Express that wasn't brand new - for whatever reason all of the others that I have stayed in were very new. This one has obviously been around for a while but has been nicely redone. My only disappointment was with the wireless Internet access, but my room time was extremely limited and I did not need to do much on my laptop so it worked out OK. If it had been an intensive business trip, it would have been an issue. I always appreciate the hot breakfast and especially the cinnamon rolls! It is great to have protein options available also. I came for a conference at Grace Community Church, just three miles down the road; the location was very convenient.More</t>
   </si>
   <si>
+    <t>davidgB910DR</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r255131761-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1420,6 +1579,9 @@
     <t>On 2/14/2015, I was on a last minute business trip and this was the only room I could find at a reasonable room rate.I don't consider this to be a pro or con, but the building itself is older. However it's newly renovated and very clean.Pros: Very nice and helpful front desk, causal dining establishments close by, complimentary breakfast, comfortable beds, good sized rooms, relatively safe environment, free parking, very clean rooms, good room rate, 20 minute drive to LAX (without traffic).Cons: Due to the holiday my neighbors (2 couples) were drunk &amp; loud however I was too tired to care, the surrounding area is industrial.More</t>
   </si>
   <si>
+    <t>KarumbaSantaFe</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r253595247-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1444,6 +1606,9 @@
     <t>There are not many options for hotels for business travelers in this area so I would still have to recommend this hotel but with a few caveats.  The lobby is clean but not comfortable. It is not a place to linger.  There is a small dining area for the HIE breakfast.   It was the standard breakfast but without much fresh fruit.  The fitness center is small and although it had adjustable weights, there wasn't a weight bench in the room.  There were 2 treadmills and 1 elliptical that was off balance and wobbled if you were going fast.  One day the water cooler was empty which was surprising since very few people used the center during my stay.  Staff were pleasant but didn't volunteers any information.  The ice machine was not working one day on my floor.  Room was normal size with a chair, ottoman and desk.   The heating system worked well.   There was no closet but an open area with minimal hangers.   The bathroom offered only shampoo and conditioner.  The shower faucet was very difficult to turn and had to be pushed very hard to stop dripping. WIFI was extremely slow and non existent at times which was a problem since I was there on business.  I reported all these things to the desk clerk.   The WIFI never improved and the ellipitcal still wobbled but the ice machine and cooler were attended.  The area was quiet and parking is...There are not many options for hotels for business travelers in this area so I would still have to recommend this hotel but with a few caveats.  The lobby is clean but not comfortable. It is not a place to linger.  There is a small dining area for the HIE breakfast.   It was the standard breakfast but without much fresh fruit.  The fitness center is small and although it had adjustable weights, there wasn't a weight bench in the room.  There were 2 treadmills and 1 elliptical that was off balance and wobbled if you were going fast.  One day the water cooler was empty which was surprising since very few people used the center during my stay.  Staff were pleasant but didn't volunteers any information.  The ice machine was not working one day on my floor.  Room was normal size with a chair, ottoman and desk.   The heating system worked well.   There was no closet but an open area with minimal hangers.   The bathroom offered only shampoo and conditioner.  The shower faucet was very difficult to turn and had to be pushed very hard to stop dripping. WIFI was extremely slow and non existent at times which was a problem since I was there on business.  I reported all these things to the desk clerk.   The WIFI never improved and the ellipitcal still wobbled but the ice machine and cooler were attended.  The area was quiet and parking is easy.   There is an outdoor pool which you can only enter by exiting the building and entering through the parking lot.  There is a Starbucks in the Galpin Motor Jaguar building which had good WIFI.   Galpin also has the Horseless Carriage House across the street for a comfort foods dining experience.   As I mentioned in the beginning, there are very few alternative hotels in the area so limited options.More</t>
   </si>
   <si>
+    <t>TF271</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r239167273-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1471,6 +1636,9 @@
     <t>I went to LA for an event &amp; originally booked at the Motel 6 down the street.  Horrible service, but that’s another review…I spotted this Holiday Inn…I called over and got Ano on the phone.  She was nice and accommodating so I immediately got my money back and checking in the Holiday Inn….Nice room.  Clean, clean linens…the Motel 6 had holes and was dirty…my bathroom was clean, the room smelled fresh.  Our ice machine was out, but I wasn’t afraid of being robbed while going to another floor so that was fine.I did spend a little more money, but that old homage, “you get what you pay for” is true.  I was glad I put in the extra bucks and spent the night in a nice clean hotel….oh they have breakfast too…but for those that go out, there was a Denny’s right next door.  I would recommend this hotel.  Ano made my night after my encounter with a rude hotel and 3.5 hour drive from San Diego in LA traffic!More</t>
   </si>
   <si>
+    <t>Maria P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r235631393-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1496,6 +1664,9 @@
   </si>
   <si>
     <t>We were very surprised by the seedy quality of this property. The bathroom smelled awful when we arrived but we thought it was because it had no fan. During the night, the toilet began to leak somehow, and in the morning, there was water with brown flecks in it flooding the bathroom floor. I don't need to tell you what those brown flecks were. The hotel allowed us to use a bathroom in another room but declined to reduce what we had paid for the room. The staff were nice; I think this is a matter of poor management. They told us that they had just 'repaired' that toilet. Apparently, not very well. Overall, this Holiday Inn Express is run down and dingy. The continental breakfast was almost completely inedible. Do yourself a favor, stay somewhere else.More</t>
+  </si>
+  <si>
+    <t>Travel_Critic83</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r233643855-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
@@ -1536,6 +1707,9 @@
 2) The room walls are not great at keeping out noise. We experienced an ongoing problem with what sounded like a toilet flushing constantly from a nearby room. When the plumber came up to our room he couldn't find a solution to...I did a lot of research on hotels prior to taking our trip and I chose this hotel primarily because it wasn't overly priced like some of the other hotels in Los Angeles and because it had easy access to Freeway 405. The hotel is located literally off the freeway.  I'll start with what was positive:1) The front desk agent who checked us in was great! She was very friendly and we got to know her throughout our stay. Whenever we would return to the hotel at night after a long day, she was always there to greet us and ask how our day was. She genuinely cared about guests.2) The room we were assigned to on the 6th floor was very clean. The housekeeping staff does an excellent job of making sure the rooms are clean.3) The water pressure is great! 4) The complimentary breakfast offers a variety of options that suit every travelers needs.The negatives:1) The neighborhood that the hotel is located in does not feel safe. Every night we observed police cars pulling over drivers and making quite a few arrests. The hotel also has a security officer on duty.2) The room walls are not great at keeping out noise. We experienced an ongoing problem with what sounded like a toilet flushing constantly from a nearby room. When the plumber came up to our room he couldn't find a solution to the problem. This annoyance continued everyday during our stay. When we brought the issue to the attention of the hotel's general manager she suggested that we were sensitive to noise and that we were probably light sleepers which isn't the case at all. We later found out that hotel recently installed new toilets in every room. It is clear that there is a plumbing issue in the pipes but the hotel management doesn't know how to fix the problem. If given the opportunity to stay at this hotel again I would most likely choose to stay elsewhere. We have stayed at many IHG properties that are top notch. More</t>
   </si>
   <si>
+    <t>356AndrewR</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r230804641-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1560,6 +1734,9 @@
     <t>I stayed here for Work at a Local Client and just loved the stay, however they did Tow my Car.  Now I know you are thinking how they could get a rating of 4 after they Tow'd my car but it was how they handled it.  Very Professional, made sure I never missed work, got my car back and other than a little extra time that they compensated, never missed this spot.Easy to get to Ventura or Oxnard, Easy to get to Pasadena or Santa Monica.  If trying to stay in the upper section of Los Angeles, there is no better place to be.  Easy On and Off to the 405, 3 minutes to the 101 and 3 min to the 118.  Like I said no better place to be if needing a great Home location to everywhere.More</t>
   </si>
   <si>
+    <t>Viking94708</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r229611193-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1584,6 +1761,9 @@
     <t>The place is nice, recently renovated and super convenient at the 405/Roscoe Blvd in the north end of the Valley.  But I needed a multi page FAX sent when departing the hotel, and the agent who checked me in (Miguel) went to great lengths to tell me how he was new to the hotel business, but not new to customer service.  I think he must be new to FAX transmitting as well, in that 2 hours after departing the hotel, my party called me to say  only the first page of the FAX was received.  This was a business generating FAX and the error cost me money for the day for my business.  I called back to the hotel to offer a friendly training/FAX transmitting review for future guests, but neither Miguel nor his manager called me back.  Disappointed!More</t>
   </si>
   <si>
+    <t>blondelinda</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r227608927-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1603,6 +1783,9 @@
   </si>
   <si>
     <t>Booked this online, whilst travelling on the road, and looking for a hotel pit stop overnightThis seemed to fit the bill, and it did. The staff on duty where helpful and friendlyIt was fine , nothing to rave about, but nothing to complain about.Easy access to the freeway , on and off, which was what we wantedMore</t>
+  </si>
+  <si>
+    <t>GeeeWeeez</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r217533027-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
@@ -1636,6 +1819,9 @@
 Now I can understand human emotions. I really did. Moods can change easily but this does not belong in any customer service field. One must stay professional at all times. Rosie was not a professional and so...I've stayed at this property before and had the chance to stay again recently. My wife and I got up to the front desk. There was a guest in front of us. Front desk lady named Rosie was helping this unhappy customer. Rosie was getting an earful about a mistake on the reservation and some other minor things. We heard a good part of their conversation unfortunately. When it came time to my turn to check in, I tried as might to smile and be extra courteous seeing Rosie just had a bad time with the previous guest. I sympathized and felt bad for her. Well unfortunately I ended up being at the wrong time and at the wrong hotel. Rosie was obviously disturbed and distracted that she may have forgotten that not all guests can be harsh and rude. I tried patiently to continue to be nice and friendly even after she continued to ignore my questions and concerns. I asked if its possible to talk to the mgr, told her maybe the mgr can make some decisions that she continues to ignore. She walked to the back of a wall and immediately came back saying she's on the phone right now.Now I can understand human emotions. I really did. Moods can change easily but this does not belong in any customer service field. One must stay professional at all times. Rosie was not a professional and so was her evening manager. I don't have any interest in considering this property for my business trips again.More</t>
   </si>
   <si>
+    <t>hppygirl32</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r216303813-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1660,6 +1846,9 @@
     <t>Visiting my daughter in van nuys and most of the hotels were older looking and looked rough areas, all hotels downtown were booked.  This was our only close option. We were okay with it because we love holiday inn express chain and never disappointed.  During our cross country trip we usually pay around 85-90 a night with military discount.  Here we paid 169/night.  Double price but paid for a better area and safety.  Rooms and service great, bfast normal.  Parking lot had security and gate for late night.  If you are in the area if Sepulveda street stay here or worry for your safety.  That area isn't the best.  My daughter and her husband are Newlyweds on a budget trying to live their dream so no suburb.   More</t>
   </si>
   <si>
+    <t>D P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r216170952-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1675,6 +1864,9 @@
     <t>It is right off the busy and noisy 405 freeway and they didn't have hot water in the morning to take a shower.  Need I say more?  I suggest you don't stay here unless you are looking for a no frills hotel.More</t>
   </si>
   <si>
+    <t>JeffLookinatFish</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r211507483-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1702,6 +1894,9 @@
     <t>We recently spent a week in Los Angeles and chose the Holiday Inn Express in Van Nuys as our home base.  It is convenient to the freeway, which though frequently congested is the life blood of LA.  The hotel is actually in Panorama City, which is largely populated with hispanics.  This was not a problem for us, as we love Mexico and the people who live there. The folks we interacted with in PC were friendly and helpful.  Just like they are in Mexico!  The lady who ran the desk at the hotel, Rosie, was outstanding.  And the gentleman in charge in the evening, Ali, was equally professional, courteous an helpful.  The rest of the staff was absolutely charming. If kindness is something you look for in a hotel, the HIE Van Nuys will not disappoint.  Our room was clean, appropriately appointed and quiet.  And the parking was apparently as safe as Rosie had promised.   In an earlier review, someone remarked on the small WC.  While it might not have been enormous, it was scrupulously clean and served us well.  Bienvenidos a Van Nuys!  jeffMore</t>
   </si>
   <si>
+    <t>Nadia  A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r211022605-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1723,6 +1918,9 @@
     <t>I traveled to this hotel with my friends for a weekend getaway. The guy that checked us in was very nice. I believe his name was Jason. There was a problem with the first room we got checked into so we had to switch to another one. Rooms are okay but bathroom was very small. Breakfast was not so great. I think the best asset of this hotel is the staff. Everybody from housekeeping and front desk to general manager were super nice.If I am in the area again, i will definitely stay here.Thank you!More</t>
   </si>
   <si>
+    <t>CjeanG</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r208921131-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1747,6 +1945,9 @@
     <t>Not! This was the cleanest place I've stayed in forever! So impressed with room, the bathroom and the staff. Lots of parking and easy on/ easy off to the freeway. Not much nearby, but we stay here when visiting family and it's always quiet and convenient.More</t>
   </si>
   <si>
+    <t>Rivon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r199826253-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1766,6 +1967,9 @@
   </si>
   <si>
     <t>This Hotel was Clean with nice friendly people. The Hotel is well lit outside based on the neighborHOOD.  I felt safe. The beds were just ok . The rooms are older  for  an express but it was clean and they did not smell All in All I'd stay there again. The bathrooms are tightMore</t>
+  </si>
+  <si>
+    <t>Snogoer</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r196489853-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
@@ -1801,6 +2005,9 @@
 Breakfast area was hinged out people elbowin for a free 40c donut makes me ill , room is again to small for the size of the herd that shows up at the trough , I...Stayed on top floor , kept smelling hot electrical parts and grease and finally followed it up to the pumps for the elevator are located next to guest rooms on the 7th floor and actually stunk bad enough were I put a towel under the door.Rooms are VERY small , the bathroom area is super small . I took a look at this Hotel and even the room entry doors are narrower than other HIEs or normal , looks like they cut some serious corners building this place , THIS IS NOT YOUR NORMAL HIE PROPERTY , my rate was high booked on 6c 160 plus tax and your are pushing 200 dollars , I would have happily paid that if I could have taken a walk and felt safe.The windows are shot , noise from the street even makes it to the 7th floor and the wind whistles thru them , HVAC unit in room was LOUD and it sounded like a Trent 1000 when it spooled up , I just left it off , stains in the carpet, and what it appears to look like a drunk with a paint brush tried to paint the rotten bottom of the bathroom door.Breakfast area was hinged out people elbowin for a free 40c donut makes me ill , room is again to small for the size of the herd that shows up at the trough , I have givin up eating at the trough ,a sure way to ruin the start of your day everytime..More</t>
   </si>
   <si>
+    <t>Pete D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r195840455-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1822,6 +2029,9 @@
     <t>Stayed a night for work. Asked for room on top floor. Room was quite big and no issues with the hotel. They say they have a "Health and fitness" center but in realty it's an old treadmill, exercise bike and stepper. At at the restaurant next to the hotel. Free breakfast standard for holiday inn express. Would stay againMore</t>
   </si>
   <si>
+    <t>kent m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r185538671-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1849,6 +2059,9 @@
     <t>Loved this place! They have a nice pool, free breakfast, free wifi, free lil gym, vending machines, and very low price!! =]The hotel staff was very nice and there was no delay in my reservation (which I had just booked online moments before check-in).  The rooms were very clean, comfortable bedding,nice and quiet rooms! everything in the room was working properly!More</t>
   </si>
   <si>
+    <t>Vikilani</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r184696716-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1867,6 +2080,9 @@
     <t>Have stayed at Holiday Inns before, but THIS one was the best!  Very clean, incredibly professional, courteous staff that actually does everything it can to make your stay perfect, delicious breakfasts for free, and so much more.  A small, more intimate hotel than most Holiday Inns, lots of parking, pool, internet access, refrigerator, and centrally located with quick access to freeways.  I loved it and will stay here again when I'm in the area.More</t>
   </si>
   <si>
+    <t>leahtots</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r182096732-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1894,6 +2110,9 @@
     <t>Check in was easy and fast.  Rooms are nice.  We had a king suite.. not super big not to small.  The bathroom is very small.  Not a lot of room to move a round and get ready.  Rooms are very clean and we did get a great night sleep.  There was not a fridge in our room, but with a call downstairs, we had one within minuets.  There is not a microwave in the rooms, which is odd of an express, but oh well.  All in all a nice place to stayMore</t>
   </si>
   <si>
+    <t>MFU1979</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r175630241-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1921,6 +2140,9 @@
     <t>Stayed here Saturday night as we were in town for a family event. It was Labor Day weekend and we didn't book ahead online. Everything descent in San Fernando Valley was sold out. Luckily we were able to get the last of two rooms at this hotel. The price was higher than the previous times we have stayed her. Rooms have been remodeled since our last stay. We got room 300 which was a little larger than the other rooms we have stayed at before. Everything was clean, from the bed sheets to the carpet and bathroom. Breakfast was the usual. I guess not any worse than Mc.Donalds and probably better. My only complaint is that my daughter left her pillow in the room and I called Sunday to ask if they can put it aside for me and someone would go pick it up. The person who answered told me someone from lost and found would contact me. It is now Tuesday night and I am still waiting for the call. It is her favorite pillow and I doubt anyone would be interested in keeping it so I don't understand why they didn't return my call, unless they threw it. If it wasn't for that I'd give it a 5.More</t>
   </si>
   <si>
+    <t>GreatTravel1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r175373063-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1945,6 +2167,9 @@
     <t>Great location, excellent staff and service, definitely will use this hotel again, recommended if you prefer a  great vacation.Thank you to all that made our stay memorable.  Breakfast was  clean and the breakfast lady was always with a big smile.More</t>
   </si>
   <si>
+    <t>Lindaschwartz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r171339199-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1963,6 +2188,9 @@
     <t>We love the accommodations and breakfast.  It was so nice that they could give us kosher food.  We also really like John, the owner of the hotel.  The only problem we had was not being able to go swimming in the pool because it was out of order.  Otherwise, it is a very nice hotel.More</t>
   </si>
   <si>
+    <t>Henrynn1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r153235151-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1990,6 +2218,9 @@
     <t>The hotel was great to stay in, the area is not the greatest, but it is surrounded by car dealerships which is not that bad as others mentioned. The hotel just got remodeled and the rooms are nice! Check in was fast and Ali was very helpful! Was there for one night, but will definitely stay here again! The rooms are quiet and with clean sheets. This hotel is your best option compared to the other horrible hotels around! Parking and breakfast is free!More</t>
   </si>
   <si>
+    <t>CaliforniaMax</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r153156931-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2011,6 +2242,9 @@
     <t>The hotel wasn't bad overall but there was a plastic sheet underneath the bottom sheet on the bed.  Did they think I was a bed wetter?  I've never been to a hotel that had a plastic sheet.  It was uncomfortable to sleep on.  A pretty dicey neighborhood, homeless people wandering around.  But the hotel itself did seem safe. I picked it because it was close to where I was working but I'm not sure I'll stay there again. The staff was very nice, no complaints there.More</t>
   </si>
   <si>
+    <t>TravelinAgain10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r152827816-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2029,6 +2263,9 @@
     <t>I was stuck in traffic and needed to get the heck out of it.   And there it was, a holiday inn express.   Great service at the desk.  5th floor room.   Pretty sweet view. The room was big.  But skinny.  Restroom was a tad cramped. I can see why a lady would be a bit cramped doing make up and all.   Overall. A good stay.  Will be back my next time in.  More</t>
   </si>
   <si>
+    <t>Roger M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r150409822-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2068,6 +2305,9 @@
     <t>The hotel has been renovated recently and was nice overall. I've stayed here many times in the past as it is very conveinently located to Anheuser-Busch brewery. The neighborhood is not the greatest and would not recommended walking around the area after dark. The rooms are very nice. The only real negative is how small the bathrooms are. I think they needed a shoehorn to insert the toilet between the counter and the bathtub.More</t>
   </si>
   <si>
+    <t>MomofKS</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r148818122-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2086,6 +2326,9 @@
     <t>The area around made me nervous &amp; when I heard the gentleman at the front desk say they have 24 hour security I did wonder where.  The gentleman that evening checking us in was super nice, greeted me properly &amp; just had a wonderful smile.  The view was that of an industrial area, the rooms were nice.  Appears the halls were recently remodeled but the way it was done seemed of poor quality.  The beds were COMFORTABLE.  Bathrooms clean and with the exception of a light we said had a ghost everything worked.  Breakfast while free was sadly cold.  The coffee was also cold which was odd.  Good selection just wish it was not ice cold.  Front desk clerk when checking out &amp; leaving was not very personable.  Overall worked for a last minute decision and would stay at the location again if price was still good.  Better than other known brands.More</t>
   </si>
   <si>
+    <t>suzcollins</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r143809462-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2107,6 +2350,9 @@
     <t>I was driving through Los Angeles heading to Oxnard, CA.  I decided I was too tired to  drive any further,  so I got a room at this Holiday Inn Xpress.  It was very comfortable and I had a great night's sleep.  It might not have been the most "scenic" place in southern, CA. but honestly, all I was looking for was a comfortable bed and a nice hot shower.  It was conveniently located just a couple of blocks off of the freeway that I needed to be on, and yet it was free from traffic noise. That was another plus!  The only thing that I would say was  missing was that I wasn't able to find a good restaurant nearby. I ended up going to a grocery store and buying some snacks and then went to bed early.More</t>
   </si>
   <si>
+    <t>Kentze M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r142404119-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2125,6 +2371,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>johnnywhitby</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r142090140-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2141,6 +2390,9 @@
   </si>
   <si>
     <t>September 2012</t>
+  </si>
+  <si>
+    <t>Mike P</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r138008919-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
@@ -2167,6 +2419,9 @@
 Edmund and the rest of the staff really make the hotel stand out.  They always greeted us as we would come and go from the hotel. If there was anything that we needed they took care of it quickly and always with a smile. They helped in making our visit all the more enjoyable. When we come back...We traveled to the L.A. area recently to visit family and see the sights. This hotel was recommended to us by our family as it is very close to their house. We stayed here four nights and can say without a doubt that it was an excellent recommendation!  The bed was comfortable and we slept well each night. The A/C worked well, and the water pressure in the shower was great.  The only issue we had with the room is that the bathroom was extremely small.  We did not use the pool or fitness center.The breakfast the hotel provides is pretty good and had a decent selection with Eggs, biscuits &amp; sausage gravy, a breakfast meat that changed each day, pancakes, cinnamon rolls, muffins, bagels, etc....The area the hotel is in is not exactly tourist central. It's primarily an industrial area with businesses and car dealerships pretty much surrounding the property.  There is a Burger King, Taco Bell, and Denny's right next door to the hotel which offer a few easy &amp; convenient dining options if the need comes up.Edmund and the rest of the staff really make the hotel stand out.  They always greeted us as we would come and go from the hotel. If there was anything that we needed they took care of it quickly and always with a smile. They helped in making our visit all the more enjoyable. When we come back to visit our family there in the future we will definitely be staying here again!More</t>
   </si>
   <si>
+    <t>Sofia H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r137314976-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2182,6 +2437,9 @@
     <t>The staff at the Holiday Inn Express were super nice and very helpful. The service was great. Our maintenance staff was great. We had the pleasure to have Maria on the 5th floor. Our room was awesomely taken care of. Definitely thinking about staying there next time I visit. The location was great as well, it was close to all the places we had in mind to visit. The stay was flawless.</t>
   </si>
   <si>
+    <t>Meredith M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r137016637-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2200,6 +2458,9 @@
     <t>I was overwhelmed by how friendly and helpful the staff was!  What a nice bunch of folks.  The room was huge, and the bed and pillows were very comfy.  The bathroom is a bit small, but was fine.  Water pressure in the shower was great.  A/C worked really well.  The location doesn't seem to be in the best neighborhood (though I'm not terribly familiar with the area, so I'm not sure about that), but there's plenty of dining options, convenience stores, etc., within walking and a short driving distance.  It's located right off the 405, so it's easy to find.  I probably could have gotten a cheaper room elsewhere, but it probably would have been a no-name, dumpy place.  I've done that before, and I'd rather go with a name that I know.  HIE was a great choice.  I rarely travel to LA, but I would stay here again if I was in the area, and would certainly give other HIEs a shot, based on my experience here.More</t>
   </si>
   <si>
+    <t>Cleanfreak a</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r135416664-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2221,6 +2482,9 @@
     <t>I stayed at this Hotel for a few days, My room was large , CLEAN,  quiet,bed was comfy, and had a fridge. I did not know what to expect with mixed reviews, but was pleasantly suprised. As a solo traveler i felt very safe at the hotel and thought it was like any other HIE i have stayed in. Pool was great, right next to the freeway, 20 Min from the beaches, but more like 45 with traffic. Not a lot to eat in the area, Found this little Italian Place 5 min away Casa Roma great food for take out. Breakfast was also pretty good and i usually skip the breakfast.More</t>
   </si>
   <si>
+    <t>Michael G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r134935442-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2236,6 +2500,9 @@
     <t>This was a nice, clean hotel. Well maintained. Looks like it went thru a recent remodel. Friendly staff. Very visible security. I like that they had Priority Club special parking right out front. The cost was a little high for a Holiday Inn Express. I think the value was not great, but worth my stay there. The rooms were well maintained for the most part. Everything worked well. Internet was good. Only challenge is the bathrooms are VERY small. You could barely fit in there comfortably and I am not big at all. The location is right off the 405 which makes it VERY convenient.</t>
   </si>
   <si>
+    <t>Greeneyes1956</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r134486253-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2260,6 +2527,9 @@
     <t>We will avoid this dump whenever we travel to the Valley.It is way overpriced for the few amenities you get. The room didn't have a refrigerator or microwave. The room was clean, but clearly in need of an upgrade. Peeling paint in the bathroom, the shower oversprays the bathtub edge no matter how tightly the shower curtain is closed. The bed was comfortable, but we got the feeling of being "short sheeted". Elevator had stainless steel panels held in place by masking tape! The free breakfast is a joke and we ended up going to elsewhere to get a substantial breakfast. The eggs were bland and the "ham" was slices of lunchmeat!  And at the end of our stay, we were overcharged from our guaranteed room rate! A "mistake" was the explanation we got when we pointed it out! Avoid avoid avoid this place!More</t>
   </si>
   <si>
+    <t>Emily O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r132278969-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2278,6 +2548,9 @@
     <t>June 2012</t>
   </si>
   <si>
+    <t>toesinthesandAz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r131835211-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2296,6 +2569,9 @@
     <t>We traveled to LA this week for a business trip and booked a night here as it looked to be the closest hotel to our meeting and a decent price.Pros:Very convenient location to get on the 405, very friendly and helpful staff, clean, we had a quiet room, large room, free breakfastCons:We were a little worried about the neighborhood - although we had no problems, bathroom was very small for two people, some kind of plastic cover on the mattress, air conditioning worked fine but no fan only setting, breakfast selection very limited.Would we stay here again? If we had to go back for a business meeting in the same place and the price was right, we probably would.More</t>
   </si>
   <si>
+    <t>RevDi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r131794573-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2320,6 +2596,9 @@
     <t>This property has been renovated and the upgrades are very nice.  The lobby is appealing and the colors are refreshing and welcoming.  My handicapped room was actually usable in a wheelchair!  I do wish, however, that Holiday Inn in general would realize that many people do not appreciate hard beds.  I woke up with my usual painful back from the rock-hard mattress.  But I know to expect that.  The breakfast area is large; I wish the breakfast items were more appealing.  I don't know what you can do to make scrambled eggs unappetizing, but they've succeeded.  The ham rolls were cold, as well.  As someone who needs protein at breakfast, that was disappointing.  But the other breakfast items were fine, and the addition of a pancake machine was interesting.  The best thing about the hotel is the staff - everyone from the front desk to the staff at the breakfast room was outgoing and asking to be of assistance.  I will certainly return.More</t>
   </si>
   <si>
+    <t>DallasC644</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r129768008-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2341,6 +2620,9 @@
     <t>The renovation of the front of the hotel wasn't much of an issue, and I didn't notice any issues inside.  The front desk staff was helpful when I stopped by.  One odd thing about the layout of the floors is that the elevators are on one end of the hotel, so it makes for a long walk if your room is at the opposite end (and if you take the stairs down, you can't get back into the lobby).  My room was alright, but I was disappointed to find that it didn't come with a mini-fridge (that is available for an extra $5/night).  There were also a number of spots that needed some TLC (the bathtub had some chips in the floor, and the mirror needed some touch-up paint in a number of spots).  There was also a good size gap under the door to the room, but that was fixed with a towel.  The A/C worked, but I found that it quickly got hot when the air wasn't on (during the night).  The breakfast was okay, but apparently the buyer doesn't like Maple &amp; Brown Sugar oatmeal or Strawberry yogurt, as there was neither.  But my biggest disappointment was with the pool:  it was very dirty (lots of "floaters" on the surface), and was in need of a good skimmer (or two).  On a side note, there is a Taco Bell, a Burger King and a Denny's all next...The renovation of the front of the hotel wasn't much of an issue, and I didn't notice any issues inside.  The front desk staff was helpful when I stopped by.  One odd thing about the layout of the floors is that the elevators are on one end of the hotel, so it makes for a long walk if your room is at the opposite end (and if you take the stairs down, you can't get back into the lobby).  My room was alright, but I was disappointed to find that it didn't come with a mini-fridge (that is available for an extra $5/night).  There were also a number of spots that needed some TLC (the bathtub had some chips in the floor, and the mirror needed some touch-up paint in a number of spots).  There was also a good size gap under the door to the room, but that was fixed with a towel.  The A/C worked, but I found that it quickly got hot when the air wasn't on (during the night).  The breakfast was okay, but apparently the buyer doesn't like Maple &amp; Brown Sugar oatmeal or Strawberry yogurt, as there was neither.  But my biggest disappointment was with the pool:  it was very dirty (lots of "floaters" on the surface), and was in need of a good skimmer (or two).  On a side note, there is a Taco Bell, a Burger King and a Denny's all next to the hotel.More</t>
   </si>
   <si>
+    <t>micheal f</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r129379252-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2356,6 +2638,9 @@
     <t>Front desk and staff was outstanding. Hotel was under renovation at the time but it wasn't a bother. My room had new furniture and nice size flat screen t.v. The place was quite at night and the breakfast was better than i expected. The pool looked clean but i didn't get to go swim. I got a good workout in the gym though. I would recommend this place to friends mainly because the people that worked there seemed to care about how my stay was and always asked if everything was O.K., It was!</t>
   </si>
   <si>
+    <t>AnnaK7605</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r129329986-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2380,6 +2665,9 @@
     <t>My boyfriend and I couldn't have a better stay than the one in this hotel. The employees were very nice and met all our wishes and expectations.More</t>
   </si>
   <si>
+    <t>LLG259</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r127452443-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2407,6 +2695,9 @@
     <t>will charge you FULL AMOUNT ($372.89) if you canceled your reservation or try to change. I had gone to the BBB of CA.,  NYS AG. They said, I will have to take them to court with my owen attorney.THIS IS INTER CONTINENTAL HOTEL GROUP GREED !!!!!!!More</t>
   </si>
   <si>
+    <t>scorpio92064</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r127037811-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2434,6 +2725,9 @@
     <t>I requested a room change cause of the a/c smelling like a burn rubber and it was cold that night, I was told that its going to be additional charge, I was shocked when the front desk told me that I will paying extra. I was hoping to get a discount but instead they charge me more from the price queted before I checked in. I, family and friends will never stay in this scammers hotel.More</t>
   </si>
   <si>
+    <t>William P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r124697833-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2449,6 +2743,9 @@
     <t>Standard Holiday Inn Express but a great location if you're traveling by.  It's not in the very best neighbor but essentially across the street from the 405 and within a block of the exit.  There is also a Taco Bell and a Denny's right next door.  Although it’s close to the Freeway, I didn't have a problem with the road noise.  The exterior of the hotel is undergoing a makeover and the interior is scheduled for painting.  The staff is very friendly.  The building is older but well maintained and looks and feels younger that it is.</t>
   </si>
   <si>
+    <t>Keikidoc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r120110530-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2470,6 +2767,9 @@
     <t>One night stay at this HIE. Friendly welcoming staff with efficient check in. Our room was clean and bed very comfortable. Breakfast was the usual fare with hostess greeting everyone and keeping hot items well stocked.The bathroom was the smallest I've seen for a HIE. Even smaller than ones in Europe. Only one person could be in there at a time (one sink).  Although it has been refinished, the quality of workmanship of the tile and painting was poor. The door needed refinishing with rusty hinges and worn lower edge, just not up to the usual HIE standards.Ate at this cool diner "the Horseless Carriage" just around the corner that was situated in the Ford Dealership.More</t>
   </si>
   <si>
+    <t>JustcallmeTab</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r119013414-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2491,6 +2791,9 @@
     <t>This hotel's customer service is the worst I have ever experienced... all the way from the man that ran the desk all the way to the general manager. I travel quite extensively due to my job and I am a Gold Prioirity Rewards member. One of  the perks of being a Gold Member is upgrading. I requested an upgrade which was not even acknowledged with no explanation as to why it was not available. My husband, who was with me at the time, is disabled and needs a bath tub to bathe in. When we checked into the room and I started to prepare to give him a bath, I discovered that the tub was damaged at the bottom and it would be rather uncomfortable for my husband to sit in. I went to the front fesk and advised of the damaged tub and the gentleman at the front desk advised that he had no rooms available. The hotel was not even crowded what so ever. I knew that there was no way that it full. Finally, the man advised that he would call his supervisor and see if he could move me to one of the rooms that were empty but taken off the available list. I then asked him where the laundry facilities were and he stated that the hotel did not have one on premises so I asked where a nearby laundromat was. He stated that he...This hotel's customer service is the worst I have ever experienced... all the way from the man that ran the desk all the way to the general manager. I travel quite extensively due to my job and I am a Gold Prioirity Rewards member. One of  the perks of being a Gold Member is upgrading. I requested an upgrade which was not even acknowledged with no explanation as to why it was not available. My husband, who was with me at the time, is disabled and needs a bath tub to bathe in. When we checked into the room and I started to prepare to give him a bath, I discovered that the tub was damaged at the bottom and it would be rather uncomfortable for my husband to sit in. I went to the front fesk and advised of the damaged tub and the gentleman at the front desk advised that he had no rooms available. The hotel was not even crowded what so ever. I knew that there was no way that it full. Finally, the man advised that he would call his supervisor and see if he could move me to one of the rooms that were empty but taken off the available list. I then asked him where the laundry facilities were and he stated that the hotel did not have one on premises so I asked where a nearby laundromat was. He stated that he would find out and when he called to advise me of what his supervisor said he would give me the location of a laundromat. I went back upstairs and waited for over an hour with no phone call. I called the front desk and was advised that that associate had left for the night and had not said a word about the issue with the tub. The associate said that he would send keys up so that we could move, which he did. After repacking, moving to the new roome cart ,and unpacking, we went downstairs to return the luggage cart and the keys from the priginal room. We asked the associate then where the nearest laundromat was and to our amazement, he stated tyat there was one on the 4th floor!!! I was livid and advised that the other associate had told us that there was not one. I asked for quarters and laundry soap and just as the guy reaches under t he counter to hand me a boix of soap he tries to make excuses that the prior associate had only been employed for 30 days and probably did not know that there was a laundry room on premises. If there was laundry soap under the counter, what would that associate think the laundry soap was for??? By this time, we are looking at three and a half hours of messing with these people. By t he time I got my husband bathed and got my laundry done and got to bed, it was after 1:30 a.m. I had to be up by 6:00 a.m. To make matter worse, I got the general managers name and number and when I contacted her and told her my experience, she said she would look into it and call me back. I never heard back from her. I called her again and she acted as if she did not know what  I was talking about and was extremely rude. I advised her that I wanted my points back or something for my compensation. She refused me and acted as if I had nothing to complain about. I asked for her supervisor's information and she told me that she was the head honcho. To make sure that I understood her correctly, I said, "so your the head of Holiday Inn huh?" to which she said yes she was.  I did end up calling Holiday Inn's Consumer Complaint dept and eventually got one half of my points back. It's b etter than nothing. I can not believe what horrible service and what a bunch of liars they are.More</t>
   </si>
   <si>
+    <t>CherylandBrett</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r119006480-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2503,6 +2806,9 @@
     <t>We have always had great success staying in a Holiday Inn but this place was only a so-so. Room was very small, carpet didn't look especially clean. TV remote didn't work-had to go to the lobby for new batteries. Bed was extremely comfortable. Breakfast was ok although the hot water dispenser was empty. I had to track someone down and ask for her to refill it so I could have my tea. No free paper offered either, I had to go to the desk and request. Was told I got the "last one"! Usually one is left outside our door!</t>
   </si>
   <si>
+    <t>justredwordz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r115232215-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2521,6 +2827,9 @@
     <t>July 2011</t>
   </si>
   <si>
+    <t>SanFransiscoPaul</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r95627957-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2539,6 +2848,9 @@
     <t>February 2011</t>
   </si>
   <si>
+    <t>orbusk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r90514074-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2560,6 +2872,9 @@
     <t>We stayed here  with two other parties from our family for a funeral. Upon arrival we were greeted politely and the check in was smooth. We went up to our room and it was small as other reviews stated.  What was not expected was the smell!  It took us a bit to figure out what it was and as far as we can figure, it smelled like urine!!! NASTY is all I can say about that. As for the rest of the room, the bathroom was not very clean, the vent was caked with dirt and dust. The corners and baseboards of the room obviously had not been tended to in some time. The walls also had what appeared to be 'splatter' marks on them.  We also saw what looked like blood on the elevator wall. The two other parties with us were charged 90 dollars extra than what they booked for online and when they brought it to the attention of the desk the morning of check out, he had no clue what they were talking about nor how to fix it. He said that it must be that the estimated taxes went up?!?!? He then had them wait until the manager could come in so that it could be remedied. This same person was unable to find hot cocoa mix for the beverage area at breakfast.  And speaking of breakfast, it was fine.... except there was no fruit...We stayed here  with two other parties from our family for a funeral. Upon arrival we were greeted politely and the check in was smooth. We went up to our room and it was small as other reviews stated.  What was not expected was the smell!  It took us a bit to figure out what it was and as far as we can figure, it smelled like urine!!! NASTY is all I can say about that. As for the rest of the room, the bathroom was not very clean, the vent was caked with dirt and dust. The corners and baseboards of the room obviously had not been tended to in some time. The walls also had what appeared to be 'splatter' marks on them.  We also saw what looked like blood on the elevator wall. The two other parties with us were charged 90 dollars extra than what they booked for online and when they brought it to the attention of the desk the morning of check out, he had no clue what they were talking about nor how to fix it. He said that it must be that the estimated taxes went up?!?!? He then had them wait until the manager could come in so that it could be remedied. This same person was unable to find hot cocoa mix for the beverage area at breakfast.  And speaking of breakfast, it was fine.... except there was no fruit as stated there would be. The area this hotel is in is not the best.... We will certainly not be returning.More</t>
   </si>
   <si>
+    <t>David12333012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r65211754-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2578,6 +2893,9 @@
     <t>March 2010</t>
   </si>
   <si>
+    <t>AZSoonerOrLater</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r46052074-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2596,6 +2914,9 @@
     <t>October 2009</t>
   </si>
   <si>
+    <t>KOSacramento</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r27377041-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2614,6 +2935,9 @@
     <t>March 2009</t>
   </si>
   <si>
+    <t>mad_scotty_dog</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r17961266-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2632,6 +2956,9 @@
     <t>July 2008</t>
   </si>
   <si>
+    <t>Patty39</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r7831359-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2653,6 +2980,9 @@
     <t>We recently stayed here to attend our son's college graduation from Cal State Northridge (CSUN).  While the neighborhood was mostly industrial and in spots, run down, the hotel was clean and comfortable.  The rooms had recently been renovated and they were in the process of updating the exterior with not only paint, but granite door frames, etc.  The beds were comfortable and felt new as did the pillows.  The hotel used bed covers rather than a traditional bedspread - a nice alternative to the germ infested coverings that I immediately remove as soon as i can. The only criticism was the smallish bathroom.  But the staff was pleasant and helpful and the daily complimentary breakfast was yummy.  We enjoyed our stay here.More</t>
   </si>
   <si>
+    <t>moval</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r7706437-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2669,6 +2999,9 @@
   </si>
   <si>
     <t>May 2007</t>
+  </si>
+  <si>
+    <t>nonaccidentaltourist</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r6568557-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
@@ -2698,6 +3031,9 @@
 The free wireless was reliable and excellent, which is my main criterion when I am in Van Nuys, since I rely on it to do the things I've come to do while there.  I used the hotel fax as my printer! A desk chair would be nice, though - I had to pile pillows on the upholstered chair to sit at the desk.  I didn't remember that from two years ago, so maybe some rooms do...There is nothing in the area with rates as low as the Holiday Inn Express, even though the rates were quite a bit higher this time than they were two years ago when I first stayed there.  I like it much more than the Best Western on Sepulveda, that's for sure.  The HIE has a refrigerator in the room, which I consider a huge plus.  I bought juice at the nearby Wal-Mart, for instance, and did not have to float it in the ice bucket to get it cold.As others have noted, the bathrooms are absurdly small, with long toilets that make getting at the hair dryer a feat for an orangutan.  A shorter, rounder, toilet would have been a better idea!Another minus is the very loud HVAC unit.  I found the beds too soft, and the fluffy mattress top was suffocating.  Pillows are marked Soft and Firm, and there are fat ones and normal ones - great to have a variety.The free wireless was reliable and excellent, which is my main criterion when I am in Van Nuys, since I rely on it to do the things I've come to do while there.  I used the hotel fax as my printer! A desk chair would be nice, though - I had to pile pillows on the upholstered chair to sit at the desk.  I didn't remember that from two years ago, so maybe some rooms do have desk chairs.  The hotel is just plain ordinary accommodations. The breakfast is just plain ordinary cold food -cold cereal, fruit, juice, hard boiled eggs, and bread for toasting as well as danish and croissants  - think packaged baked goods, not scrumptious.  They have instant oatmeal, but without a microwave and less-than-boiling hot water, it doesn't quite work. But the offerings will get you to lunch, and I took an orange up to the room to eat at night.  Hard to peel with just a plastic knife, but a welcome snack.There's an In-N-Out Burger a few miles east on Roscoe, if the next-door options - Denny's, Burger King, and Taco Bell - don't entice you. The area seemed fine to me as I strolled to those three fine dining establishments. Denny's is a good place for a hot breakfast. Unless you're buying a Jaguar, you're basically nowhere, but conveniently immediately off the 405.More</t>
   </si>
   <si>
+    <t>ICJ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r6484995-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2719,6 +3055,9 @@
     <t>The best thing about the Holiday Inn Express Van Nuys is that it is just a 15-20 minute drive to Hollywood and surrounding attractions like Universal City. It's a good choice if you're looking for a clean, relatively affordable place to sleep after a day of sightseeing. The complimentary breakfast was adequate and the front desk staff was friendly and helpful. On the downside, the bathroom was so small, I could not stand directly in front of the sink because the toilet was in the way. If you're a larger person, you might have difficulty opening and closing the door from inside. The area immediately around the hotel is nothing special, and offers few dining options other than fast-food chains.More</t>
   </si>
   <si>
+    <t>CK-LasVegas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r5534218-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2735,6 +3074,9 @@
   </si>
   <si>
     <t>Overall a worn and dirty property under renovation. Specifically asked for a room on the top floor; got one on the 5th out of 7 floors; said we wanted peace &amp; quiet, placed in a room on the side they were replacing/repairing the windows - had to close the curtains because the workman otherwise could look right in. The carpeting in the hallway was filthy, not as bad in the room but still dirty + the comforter &amp; blankets were not freshly laundered; at least there were clean sheets.  The bathroom is extremely small, there were pieces of wood peeled off the back of the bathroom door; light came in all around the hallway door (put the comforter at the bottom). Stayed a Sat &amp; Sun night @ $112.00 booked directly on the website; was worth maybe 1/2 that at the MOST.  The breakfast selection was decent but overall this was not a good experience; we will never stay there again nor recommend it.More</t>
+  </si>
+  <si>
+    <t>UOT</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r4049959-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
@@ -2763,6 +3105,9 @@
 I am a member of their...We stayed here for 3 nights in October.  We flew into the Burbank Airport and wanted a hotel that was nearby.  We went to the King Tut exhibit at the museum (I highly recommend this!), Six Flags Magic Mountain, and drove the highway from Santa Monica to Malibu.  The traffic really can be an eye opener...there was traffic backed up at 5pm on a Saturday.  We did eat at the Reel Inn on the Pacific Coast Highway in Malibu...I highly recommend this also, it was a great place for fresh fish!Check-in was a breeze at the hotel...we were in room 614 with one King bed.  It was exactly like the pictures previously posted but instead of the second bed, we had a large chair and side table.  We were happy with the fridge and the size of the room.  The bathroom is a one person bathroom but that is ok.  There were undergoing major renovations...looked like they were replacing all the carpet, repainting, etc.  The room was very clean.The breakfast was the typical continental breakfast with the addition of warm cinnamon rolls.  Very good...there is the Denny's and Taco Bell right next door.  We did not use the pool...had pretty gloomy days when we were there.  They did have computers in the lobby where you could access the internet for 10min/$1 but we could not get either of the computers to connect.  I am a member of their priority club and booked online thru them for $80 a night.  We received a copy of the LA Times every morning...including the Sunday paper.  Some rooms had the LA Times and others had USA today outside the door.I would highly recommend this hotel to anyone looking in the area.More</t>
   </si>
   <si>
+    <t>Fussbudget07</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r3942213-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2779,6 +3124,9 @@
   </si>
   <si>
     <t>My husband and I picked this inn because it was the closest place to our just-relocated kids' house, and because Trip Advisor had given it a superior review despite its 2-star category.  We were delighted to find that Trip Advisor was absolutely right:  our large, king-bedded room was immaculately clean, well serviced, and quiet; even though we learned that the hotel is undergoing massive renovations, we never heard a sound.  The complimentary buffet breakfast was better than most I've had and the staff couldn't have been more efficient or accommodating, and if you get bored with the sameness of the food, you can walk next door and eat at Denny's.  We have already booked another stay for our next trip to CA.More</t>
+  </si>
+  <si>
+    <t>macmaroon</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82494-r3743047-Holiday_Inn_Express_Van_Nuys-Los_Angeles_California.html</t>
@@ -3307,43 +3655,47 @@
       <c r="A2" t="n">
         <v>147</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>192715</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>4</v>
@@ -3363,50 +3715,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>147</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>192716</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
         <v>54</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -3426,50 +3782,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>147</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>4877</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -3483,50 +3843,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>147</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>192717</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -3540,56 +3904,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>147</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>192718</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -3603,50 +3971,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>147</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>12976</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3658,56 +4030,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="X7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>147</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>192719</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3721,50 +4097,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>147</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>192720</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="K9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="L9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="O9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
@@ -3780,56 +4160,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="X9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="Y9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>147</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>192721</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="J10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="K10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="L10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -3845,56 +4229,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="X10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="Y10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>147</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>71472</v>
+      </c>
+      <c r="C11" t="s">
+        <v>124</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="J11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="K11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="L11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="O11" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3906,56 +4294,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="X11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="Y11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>147</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>2433</v>
+      </c>
+      <c r="C12" t="s">
+        <v>134</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="J12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="K12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="L12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3967,56 +4359,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="X12" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="Y12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>147</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>141</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" t="s">
+        <v>143</v>
+      </c>
+      <c r="J13" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" t="s">
+        <v>146</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
         <v>130</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
-        <v>131</v>
-      </c>
-      <c r="J13" t="s">
-        <v>132</v>
-      </c>
-      <c r="K13" t="s">
-        <v>133</v>
-      </c>
-      <c r="L13" t="s">
-        <v>134</v>
-      </c>
-      <c r="M13" t="n">
-        <v>4</v>
-      </c>
-      <c r="N13" t="s">
-        <v>120</v>
-      </c>
       <c r="O13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -4028,56 +4424,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="X13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="Y13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>147</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>192722</v>
+      </c>
+      <c r="C14" t="s">
+        <v>151</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="J14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="K14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="L14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="O14" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -4095,56 +4495,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="X14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="Y14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>147</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>192723</v>
+      </c>
+      <c r="C15" t="s">
+        <v>161</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="J15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="K15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="L15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="O15" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -4162,56 +4566,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="X15" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="Y15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>147</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>192724</v>
+      </c>
+      <c r="C16" t="s">
+        <v>168</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="J16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="K16" t="s">
+        <v>172</v>
+      </c>
+      <c r="L16" t="s">
+        <v>173</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
         <v>157</v>
       </c>
-      <c r="L16" t="s">
-        <v>158</v>
-      </c>
-      <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
-        <v>144</v>
-      </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -4229,56 +4637,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="X16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="Y16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>147</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>192725</v>
+      </c>
+      <c r="C17" t="s">
+        <v>177</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="J17" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="K17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="L17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="O17" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -4296,56 +4708,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="X17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="Y17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>147</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>192726</v>
+      </c>
+      <c r="C18" t="s">
+        <v>187</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="J18" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="K18" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="L18" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="O18" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
@@ -4365,50 +4781,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>147</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>192727</v>
+      </c>
+      <c r="C19" t="s">
+        <v>194</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="J19" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="K19" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="L19" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -4424,56 +4844,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="X19" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="Y19" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>147</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>192728</v>
+      </c>
+      <c r="C20" t="s">
+        <v>203</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="J20" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="K20" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="L20" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -4491,47 +4915,51 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="X20" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="Y20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>147</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>192729</v>
+      </c>
+      <c r="C21" t="s">
+        <v>210</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="J21" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="K21" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="L21" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
@@ -4548,56 +4976,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="X21" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="Y21" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>147</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>3263</v>
+      </c>
+      <c r="C22" t="s">
+        <v>217</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="J22" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="K22" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="L22" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="n">
         <v>3</v>
@@ -4613,56 +5045,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="X22" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="Y22" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>147</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>192730</v>
+      </c>
+      <c r="C23" t="s">
+        <v>226</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="J23" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="K23" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="L23" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="n">
         <v>1</v>
@@ -4678,56 +5114,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="X23" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="Y23" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>147</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>1652</v>
+      </c>
+      <c r="C24" t="s">
+        <v>235</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="J24" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="K24" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="L24" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4739,56 +5179,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="X24" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="Y24" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>147</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>66304</v>
+      </c>
+      <c r="C25" t="s">
+        <v>244</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="J25" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="K25" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="L25" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="O25" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4802,50 +5246,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>147</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>192731</v>
+      </c>
+      <c r="C26" t="s">
+        <v>251</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="J26" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="K26" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="L26" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
@@ -4863,56 +5311,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="X26" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="Y26" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>147</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>192732</v>
+      </c>
+      <c r="C27" t="s">
+        <v>261</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="J27" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="K27" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="L27" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="O27" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4924,56 +5376,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="X27" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="Y27" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>147</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>192733</v>
+      </c>
+      <c r="C28" t="s">
+        <v>270</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="J28" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="K28" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="L28" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="O28" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P28" t="n">
         <v>4</v>
@@ -4991,56 +5447,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="X28" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="Y28" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>147</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>192734</v>
+      </c>
+      <c r="C29" t="s">
+        <v>277</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="J29" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="K29" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="L29" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -5052,56 +5512,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="X29" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="Y29" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>147</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>192735</v>
+      </c>
+      <c r="C30" t="s">
+        <v>287</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="J30" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="K30" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="L30" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="O30" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="P30" t="n">
         <v>4</v>
@@ -5117,56 +5581,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="X30" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="Y30" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>147</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>192736</v>
+      </c>
+      <c r="C31" t="s">
+        <v>298</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="J31" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="K31" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="L31" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="O31" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P31" t="n">
         <v>3</v>
@@ -5184,56 +5652,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="X31" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="Y31" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>147</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>117578</v>
+      </c>
+      <c r="C32" t="s">
+        <v>307</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="J32" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="K32" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="L32" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="O32" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -5245,56 +5717,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="X32" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="Y32" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>147</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>4349</v>
+      </c>
+      <c r="C33" t="s">
+        <v>317</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="J33" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="K33" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="L33" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
@@ -5312,56 +5788,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="X33" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="Y33" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>147</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>192737</v>
+      </c>
+      <c r="C34" t="s">
+        <v>324</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="J34" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="K34" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="L34" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -5377,56 +5857,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="X34" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="Y34" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>147</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>192738</v>
+      </c>
+      <c r="C35" t="s">
+        <v>332</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="J35" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="K35" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="L35" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="O35" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P35" t="n">
         <v>1</v>
@@ -5444,56 +5928,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="X35" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="Y35" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>147</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>192739</v>
+      </c>
+      <c r="C36" t="s">
+        <v>342</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="J36" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="K36" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="L36" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="M36" t="n">
         <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -5509,56 +5997,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="X36" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="Y36" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>147</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>192740</v>
+      </c>
+      <c r="C37" t="s">
+        <v>351</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="J37" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="K37" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="L37" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="O37" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="n">
@@ -5574,56 +6066,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="X37" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="Y37" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>147</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>192741</v>
+      </c>
+      <c r="C38" t="s">
+        <v>359</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="J38" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="K38" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="L38" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -5635,56 +6131,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="X38" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="Y38" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>147</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>192742</v>
+      </c>
+      <c r="C39" t="s">
+        <v>368</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="J39" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="K39" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="L39" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="O39" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5700,56 +6200,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="X39" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="Y39" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>147</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>192743</v>
+      </c>
+      <c r="C40" t="s">
+        <v>377</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="J40" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="K40" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="L40" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5763,41 +6267,45 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>147</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>192744</v>
+      </c>
+      <c r="C41" t="s">
+        <v>382</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="J41" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="K41" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
       <c r="L41" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
@@ -5814,56 +6322,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
       <c r="X41" t="s">
-        <v>349</v>
+        <v>389</v>
       </c>
       <c r="Y41" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>147</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>47988</v>
+      </c>
+      <c r="C42" t="s">
+        <v>391</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>352</v>
+        <v>393</v>
       </c>
       <c r="J42" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="K42" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="L42" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>356</v>
+        <v>397</v>
       </c>
       <c r="O42" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5875,56 +6387,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>357</v>
+        <v>398</v>
       </c>
       <c r="X42" t="s">
-        <v>358</v>
+        <v>399</v>
       </c>
       <c r="Y42" t="s">
-        <v>359</v>
+        <v>400</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>147</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>565</v>
+      </c>
+      <c r="C43" t="s">
+        <v>401</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>360</v>
+        <v>402</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>361</v>
+        <v>403</v>
       </c>
       <c r="J43" t="s">
-        <v>362</v>
+        <v>404</v>
       </c>
       <c r="K43" t="s">
-        <v>363</v>
+        <v>405</v>
       </c>
       <c r="L43" t="s">
-        <v>364</v>
+        <v>406</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>365</v>
+        <v>407</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="n">
         <v>3</v>
@@ -5944,50 +6460,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>364</v>
+        <v>406</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>147</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>192745</v>
+      </c>
+      <c r="C44" t="s">
+        <v>408</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>366</v>
+        <v>409</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>367</v>
+        <v>410</v>
       </c>
       <c r="J44" t="s">
-        <v>368</v>
+        <v>411</v>
       </c>
       <c r="K44" t="s">
-        <v>369</v>
+        <v>412</v>
       </c>
       <c r="L44" t="s">
-        <v>370</v>
+        <v>413</v>
       </c>
       <c r="M44" t="n">
         <v>2</v>
       </c>
       <c r="N44" t="s">
-        <v>371</v>
+        <v>414</v>
       </c>
       <c r="O44" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="n">
@@ -6005,56 +6525,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>372</v>
+        <v>415</v>
       </c>
       <c r="X44" t="s">
-        <v>373</v>
+        <v>416</v>
       </c>
       <c r="Y44" t="s">
-        <v>374</v>
+        <v>417</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>147</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>192746</v>
+      </c>
+      <c r="C45" t="s">
+        <v>418</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>375</v>
+        <v>419</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>376</v>
+        <v>420</v>
       </c>
       <c r="J45" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="K45" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="L45" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>371</v>
+        <v>414</v>
       </c>
       <c r="O45" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -6066,56 +6590,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>380</v>
+        <v>424</v>
       </c>
       <c r="X45" t="s">
-        <v>373</v>
+        <v>416</v>
       </c>
       <c r="Y45" t="s">
-        <v>381</v>
+        <v>425</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>147</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>192747</v>
+      </c>
+      <c r="C46" t="s">
+        <v>426</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>382</v>
+        <v>427</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>383</v>
+        <v>428</v>
       </c>
       <c r="J46" t="s">
-        <v>384</v>
+        <v>429</v>
       </c>
       <c r="K46" t="s">
-        <v>385</v>
+        <v>430</v>
       </c>
       <c r="L46" t="s">
-        <v>386</v>
+        <v>431</v>
       </c>
       <c r="M46" t="n">
         <v>2</v>
       </c>
       <c r="N46" t="s">
-        <v>371</v>
+        <v>414</v>
       </c>
       <c r="O46" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="n">
@@ -6133,56 +6661,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>387</v>
+        <v>432</v>
       </c>
       <c r="X46" t="s">
-        <v>388</v>
+        <v>433</v>
       </c>
       <c r="Y46" t="s">
-        <v>389</v>
+        <v>434</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>147</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>192748</v>
+      </c>
+      <c r="C47" t="s">
+        <v>435</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>390</v>
+        <v>436</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>391</v>
+        <v>437</v>
       </c>
       <c r="J47" t="s">
-        <v>392</v>
+        <v>438</v>
       </c>
       <c r="K47" t="s">
-        <v>393</v>
+        <v>439</v>
       </c>
       <c r="L47" t="s">
-        <v>394</v>
+        <v>440</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -6194,56 +6726,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>396</v>
+        <v>442</v>
       </c>
       <c r="X47" t="s">
-        <v>397</v>
+        <v>443</v>
       </c>
       <c r="Y47" t="s">
-        <v>398</v>
+        <v>444</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>147</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>192749</v>
+      </c>
+      <c r="C48" t="s">
+        <v>445</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>399</v>
+        <v>446</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>400</v>
+        <v>447</v>
       </c>
       <c r="J48" t="s">
-        <v>401</v>
+        <v>448</v>
       </c>
       <c r="K48" t="s">
-        <v>402</v>
+        <v>449</v>
       </c>
       <c r="L48" t="s">
-        <v>403</v>
+        <v>450</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="O48" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -6259,56 +6795,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>404</v>
+        <v>451</v>
       </c>
       <c r="X48" t="s">
-        <v>405</v>
+        <v>452</v>
       </c>
       <c r="Y48" t="s">
-        <v>406</v>
+        <v>453</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>147</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>192750</v>
+      </c>
+      <c r="C49" t="s">
+        <v>454</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>407</v>
+        <v>455</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>408</v>
+        <v>456</v>
       </c>
       <c r="J49" t="s">
-        <v>409</v>
+        <v>457</v>
       </c>
       <c r="K49" t="s">
-        <v>410</v>
+        <v>458</v>
       </c>
       <c r="L49" t="s">
-        <v>411</v>
+        <v>459</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="O49" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="n">
@@ -6326,56 +6866,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>412</v>
+        <v>460</v>
       </c>
       <c r="X49" t="s">
-        <v>413</v>
+        <v>461</v>
       </c>
       <c r="Y49" t="s">
-        <v>414</v>
+        <v>462</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>147</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>192751</v>
+      </c>
+      <c r="C50" t="s">
+        <v>463</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>415</v>
+        <v>464</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>416</v>
+        <v>465</v>
       </c>
       <c r="J50" t="s">
-        <v>417</v>
+        <v>466</v>
       </c>
       <c r="K50" t="s">
-        <v>418</v>
+        <v>467</v>
       </c>
       <c r="L50" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>420</v>
+        <v>469</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -6387,56 +6931,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>412</v>
+        <v>460</v>
       </c>
       <c r="X50" t="s">
-        <v>413</v>
+        <v>461</v>
       </c>
       <c r="Y50" t="s">
-        <v>421</v>
+        <v>470</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>147</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>192752</v>
+      </c>
+      <c r="C51" t="s">
+        <v>471</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>422</v>
+        <v>472</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>423</v>
+        <v>473</v>
       </c>
       <c r="J51" t="s">
-        <v>424</v>
+        <v>474</v>
       </c>
       <c r="K51" t="s">
-        <v>425</v>
+        <v>475</v>
       </c>
       <c r="L51" t="s">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>420</v>
+        <v>469</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -6454,56 +7002,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>427</v>
+        <v>477</v>
       </c>
       <c r="X51" t="s">
-        <v>413</v>
+        <v>461</v>
       </c>
       <c r="Y51" t="s">
-        <v>428</v>
+        <v>478</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>147</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>192753</v>
+      </c>
+      <c r="C52" t="s">
+        <v>479</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>429</v>
+        <v>480</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>430</v>
+        <v>481</v>
       </c>
       <c r="J52" t="s">
-        <v>431</v>
+        <v>482</v>
       </c>
       <c r="K52" t="s">
-        <v>432</v>
+        <v>483</v>
       </c>
       <c r="L52" t="s">
-        <v>433</v>
+        <v>484</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>420</v>
+        <v>469</v>
       </c>
       <c r="O52" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -6523,50 +7075,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>434</v>
+        <v>485</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>147</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>7363</v>
+      </c>
+      <c r="C53" t="s">
+        <v>486</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>435</v>
+        <v>487</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>436</v>
+        <v>488</v>
       </c>
       <c r="J53" t="s">
-        <v>437</v>
+        <v>489</v>
       </c>
       <c r="K53" t="s">
-        <v>438</v>
+        <v>490</v>
       </c>
       <c r="L53" t="s">
-        <v>439</v>
+        <v>491</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>420</v>
+        <v>469</v>
       </c>
       <c r="O53" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -6582,56 +7138,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>440</v>
+        <v>492</v>
       </c>
       <c r="X53" t="s">
-        <v>441</v>
+        <v>493</v>
       </c>
       <c r="Y53" t="s">
-        <v>442</v>
+        <v>494</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>147</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>192754</v>
+      </c>
+      <c r="C54" t="s">
+        <v>495</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>443</v>
+        <v>496</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>444</v>
+        <v>497</v>
       </c>
       <c r="J54" t="s">
-        <v>445</v>
+        <v>498</v>
       </c>
       <c r="K54" t="s">
-        <v>446</v>
+        <v>499</v>
       </c>
       <c r="L54" t="s">
-        <v>447</v>
+        <v>500</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>448</v>
+        <v>501</v>
       </c>
       <c r="O54" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -6643,56 +7203,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>440</v>
+        <v>492</v>
       </c>
       <c r="X54" t="s">
-        <v>441</v>
+        <v>493</v>
       </c>
       <c r="Y54" t="s">
-        <v>449</v>
+        <v>502</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>147</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>192755</v>
+      </c>
+      <c r="C55" t="s">
+        <v>503</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>450</v>
+        <v>504</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>451</v>
+        <v>505</v>
       </c>
       <c r="J55" t="s">
-        <v>452</v>
+        <v>506</v>
       </c>
       <c r="K55" t="s">
-        <v>453</v>
+        <v>507</v>
       </c>
       <c r="L55" t="s">
-        <v>454</v>
+        <v>508</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>448</v>
+        <v>501</v>
       </c>
       <c r="O55" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -6708,56 +7272,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>455</v>
+        <v>509</v>
       </c>
       <c r="X55" t="s">
-        <v>456</v>
+        <v>510</v>
       </c>
       <c r="Y55" t="s">
-        <v>457</v>
+        <v>511</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>147</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>192756</v>
+      </c>
+      <c r="C56" t="s">
+        <v>512</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>459</v>
+        <v>514</v>
       </c>
       <c r="J56" t="s">
-        <v>460</v>
+        <v>515</v>
       </c>
       <c r="K56" t="s">
-        <v>461</v>
+        <v>516</v>
       </c>
       <c r="L56" t="s">
-        <v>462</v>
+        <v>517</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>463</v>
+        <v>518</v>
       </c>
       <c r="O56" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -6773,56 +7341,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>464</v>
+        <v>519</v>
       </c>
       <c r="X56" t="s">
-        <v>465</v>
+        <v>520</v>
       </c>
       <c r="Y56" t="s">
-        <v>466</v>
+        <v>521</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>147</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>18816</v>
+      </c>
+      <c r="C57" t="s">
+        <v>522</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>467</v>
+        <v>523</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>468</v>
+        <v>524</v>
       </c>
       <c r="J57" t="s">
-        <v>469</v>
+        <v>525</v>
       </c>
       <c r="K57" t="s">
-        <v>470</v>
+        <v>526</v>
       </c>
       <c r="L57" t="s">
-        <v>471</v>
+        <v>527</v>
       </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>472</v>
+        <v>528</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -6840,47 +7412,51 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="X57" t="s">
-        <v>474</v>
+        <v>530</v>
       </c>
       <c r="Y57" t="s">
-        <v>475</v>
+        <v>531</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>147</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>192757</v>
+      </c>
+      <c r="C58" t="s">
+        <v>532</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>476</v>
+        <v>533</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>477</v>
+        <v>534</v>
       </c>
       <c r="J58" t="s">
-        <v>478</v>
+        <v>535</v>
       </c>
       <c r="K58" t="s">
-        <v>479</v>
+        <v>536</v>
       </c>
       <c r="L58" t="s">
-        <v>480</v>
+        <v>537</v>
       </c>
       <c r="M58" t="n">
         <v>3</v>
@@ -6907,56 +7483,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>481</v>
+        <v>538</v>
       </c>
       <c r="X58" t="s">
-        <v>482</v>
+        <v>539</v>
       </c>
       <c r="Y58" t="s">
-        <v>483</v>
+        <v>540</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>147</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>192758</v>
+      </c>
+      <c r="C59" t="s">
+        <v>541</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>484</v>
+        <v>542</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>485</v>
+        <v>543</v>
       </c>
       <c r="J59" t="s">
-        <v>486</v>
+        <v>544</v>
       </c>
       <c r="K59" t="s">
-        <v>487</v>
+        <v>545</v>
       </c>
       <c r="L59" t="s">
-        <v>488</v>
+        <v>546</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>489</v>
+        <v>547</v>
       </c>
       <c r="O59" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P59" t="n">
         <v>3</v>
@@ -6974,56 +7554,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>490</v>
+        <v>548</v>
       </c>
       <c r="X59" t="s">
-        <v>482</v>
+        <v>539</v>
       </c>
       <c r="Y59" t="s">
-        <v>491</v>
+        <v>549</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>147</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>148524</v>
+      </c>
+      <c r="C60" t="s">
+        <v>550</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>492</v>
+        <v>551</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>493</v>
+        <v>552</v>
       </c>
       <c r="J60" t="s">
-        <v>494</v>
+        <v>553</v>
       </c>
       <c r="K60" t="s">
-        <v>495</v>
+        <v>554</v>
       </c>
       <c r="L60" t="s">
-        <v>496</v>
+        <v>555</v>
       </c>
       <c r="M60" t="n">
         <v>3</v>
       </c>
       <c r="N60" t="s">
-        <v>472</v>
+        <v>528</v>
       </c>
       <c r="O60" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="n">
@@ -7039,56 +7623,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>497</v>
+        <v>556</v>
       </c>
       <c r="X60" t="s">
-        <v>498</v>
+        <v>557</v>
       </c>
       <c r="Y60" t="s">
-        <v>499</v>
+        <v>558</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>147</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>87483</v>
+      </c>
+      <c r="C61" t="s">
+        <v>559</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>501</v>
+        <v>561</v>
       </c>
       <c r="J61" t="s">
-        <v>502</v>
+        <v>562</v>
       </c>
       <c r="K61" t="s">
-        <v>503</v>
+        <v>563</v>
       </c>
       <c r="L61" t="s">
-        <v>504</v>
+        <v>564</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>505</v>
+        <v>565</v>
       </c>
       <c r="O61" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P61" t="n">
         <v>4</v>
@@ -7106,56 +7694,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>497</v>
+        <v>556</v>
       </c>
       <c r="X61" t="s">
-        <v>498</v>
+        <v>557</v>
       </c>
       <c r="Y61" t="s">
-        <v>506</v>
+        <v>566</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>147</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>192759</v>
+      </c>
+      <c r="C62" t="s">
+        <v>567</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>507</v>
+        <v>568</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>508</v>
+        <v>569</v>
       </c>
       <c r="J62" t="s">
-        <v>509</v>
+        <v>570</v>
       </c>
       <c r="K62" t="s">
-        <v>510</v>
+        <v>571</v>
       </c>
       <c r="L62" t="s">
-        <v>511</v>
+        <v>572</v>
       </c>
       <c r="M62" t="n">
         <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>512</v>
+        <v>573</v>
       </c>
       <c r="O62" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="s"/>
@@ -7167,47 +7759,51 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>513</v>
+        <v>574</v>
       </c>
       <c r="X62" t="s">
-        <v>514</v>
+        <v>575</v>
       </c>
       <c r="Y62" t="s">
-        <v>515</v>
+        <v>576</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>147</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>192760</v>
+      </c>
+      <c r="C63" t="s">
+        <v>577</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>516</v>
+        <v>578</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>517</v>
+        <v>579</v>
       </c>
       <c r="J63" t="s">
-        <v>518</v>
+        <v>580</v>
       </c>
       <c r="K63" t="s">
-        <v>519</v>
+        <v>581</v>
       </c>
       <c r="L63" t="s">
-        <v>520</v>
+        <v>582</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
@@ -7234,56 +7830,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>521</v>
+        <v>583</v>
       </c>
       <c r="X63" t="s">
-        <v>522</v>
+        <v>584</v>
       </c>
       <c r="Y63" t="s">
-        <v>523</v>
+        <v>585</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>147</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>16125</v>
+      </c>
+      <c r="C64" t="s">
+        <v>586</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>524</v>
+        <v>587</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>525</v>
+        <v>588</v>
       </c>
       <c r="J64" t="s">
-        <v>518</v>
+        <v>580</v>
       </c>
       <c r="K64" t="s">
-        <v>526</v>
+        <v>589</v>
       </c>
       <c r="L64" t="s">
-        <v>527</v>
+        <v>590</v>
       </c>
       <c r="M64" t="n">
         <v>2</v>
       </c>
       <c r="N64" t="s">
-        <v>512</v>
+        <v>573</v>
       </c>
       <c r="O64" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="P64" t="n">
         <v>1</v>
@@ -7301,56 +7901,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>521</v>
+        <v>583</v>
       </c>
       <c r="X64" t="s">
-        <v>522</v>
+        <v>584</v>
       </c>
       <c r="Y64" t="s">
-        <v>528</v>
+        <v>591</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>147</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>192761</v>
+      </c>
+      <c r="C65" t="s">
+        <v>592</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>529</v>
+        <v>593</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>530</v>
+        <v>594</v>
       </c>
       <c r="J65" t="s">
-        <v>531</v>
+        <v>595</v>
       </c>
       <c r="K65" t="s">
-        <v>532</v>
+        <v>596</v>
       </c>
       <c r="L65" t="s">
-        <v>533</v>
+        <v>597</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>534</v>
+        <v>598</v>
       </c>
       <c r="O65" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -7372,56 +7976,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>535</v>
+        <v>599</v>
       </c>
       <c r="X65" t="s">
-        <v>536</v>
+        <v>600</v>
       </c>
       <c r="Y65" t="s">
-        <v>537</v>
+        <v>601</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>147</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>192762</v>
+      </c>
+      <c r="C66" t="s">
+        <v>602</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>538</v>
+        <v>603</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>539</v>
+        <v>604</v>
       </c>
       <c r="J66" t="s">
-        <v>540</v>
+        <v>605</v>
       </c>
       <c r="K66" t="s">
-        <v>541</v>
+        <v>606</v>
       </c>
       <c r="L66" t="s">
-        <v>542</v>
+        <v>607</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>534</v>
+        <v>598</v>
       </c>
       <c r="O66" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="P66" t="n">
         <v>4</v>
@@ -7443,56 +8051,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>543</v>
+        <v>608</v>
       </c>
       <c r="X66" t="s">
-        <v>536</v>
+        <v>600</v>
       </c>
       <c r="Y66" t="s">
-        <v>544</v>
+        <v>609</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>147</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>192763</v>
+      </c>
+      <c r="C67" t="s">
+        <v>610</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>545</v>
+        <v>611</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>546</v>
+        <v>612</v>
       </c>
       <c r="J67" t="s">
-        <v>547</v>
+        <v>613</v>
       </c>
       <c r="K67" t="s">
-        <v>548</v>
+        <v>614</v>
       </c>
       <c r="L67" t="s">
-        <v>549</v>
+        <v>615</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>534</v>
+        <v>598</v>
       </c>
       <c r="O67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P67" t="s"/>
       <c r="Q67" t="n">
@@ -7510,56 +8122,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>550</v>
+        <v>616</v>
       </c>
       <c r="X67" t="s">
-        <v>551</v>
+        <v>617</v>
       </c>
       <c r="Y67" t="s">
-        <v>552</v>
+        <v>618</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>147</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>192764</v>
+      </c>
+      <c r="C68" t="s">
+        <v>619</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>553</v>
+        <v>620</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>554</v>
+        <v>621</v>
       </c>
       <c r="J68" t="s">
-        <v>555</v>
+        <v>622</v>
       </c>
       <c r="K68" t="s">
-        <v>556</v>
+        <v>623</v>
       </c>
       <c r="L68" t="s">
-        <v>557</v>
+        <v>624</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>505</v>
+        <v>565</v>
       </c>
       <c r="O68" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="P68" t="n">
         <v>3</v>
@@ -7581,56 +8197,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>558</v>
+        <v>625</v>
       </c>
       <c r="X68" t="s">
-        <v>551</v>
+        <v>617</v>
       </c>
       <c r="Y68" t="s">
-        <v>559</v>
+        <v>626</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>147</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>192765</v>
+      </c>
+      <c r="C69" t="s">
+        <v>627</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>560</v>
+        <v>628</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>561</v>
+        <v>629</v>
       </c>
       <c r="J69" t="s">
-        <v>562</v>
+        <v>630</v>
       </c>
       <c r="K69" t="s">
-        <v>563</v>
+        <v>631</v>
       </c>
       <c r="L69" t="s">
-        <v>564</v>
+        <v>632</v>
       </c>
       <c r="M69" t="n">
         <v>3</v>
       </c>
       <c r="N69" t="s">
-        <v>565</v>
+        <v>633</v>
       </c>
       <c r="O69" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P69" t="s"/>
       <c r="Q69" t="s"/>
@@ -7642,47 +8262,51 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>566</v>
+        <v>634</v>
       </c>
       <c r="X69" t="s">
-        <v>567</v>
+        <v>635</v>
       </c>
       <c r="Y69" t="s">
-        <v>568</v>
+        <v>636</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>147</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>86554</v>
+      </c>
+      <c r="C70" t="s">
+        <v>637</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>569</v>
+        <v>638</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>570</v>
+        <v>639</v>
       </c>
       <c r="J70" t="s">
-        <v>571</v>
+        <v>640</v>
       </c>
       <c r="K70" t="s">
-        <v>572</v>
+        <v>641</v>
       </c>
       <c r="L70" t="s">
-        <v>573</v>
+        <v>642</v>
       </c>
       <c r="M70" t="n">
         <v>3</v>
@@ -7709,56 +8333,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>574</v>
+        <v>643</v>
       </c>
       <c r="X70" t="s">
-        <v>567</v>
+        <v>635</v>
       </c>
       <c r="Y70" t="s">
-        <v>575</v>
+        <v>644</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>147</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>192766</v>
+      </c>
+      <c r="C71" t="s">
+        <v>645</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>576</v>
+        <v>646</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>577</v>
+        <v>647</v>
       </c>
       <c r="J71" t="s">
-        <v>578</v>
+        <v>648</v>
       </c>
       <c r="K71" t="s">
-        <v>579</v>
+        <v>649</v>
       </c>
       <c r="L71" t="s">
-        <v>580</v>
+        <v>650</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>581</v>
+        <v>651</v>
       </c>
       <c r="O71" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -7780,56 +8408,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>582</v>
+        <v>652</v>
       </c>
       <c r="X71" t="s">
-        <v>583</v>
+        <v>653</v>
       </c>
       <c r="Y71" t="s">
-        <v>584</v>
+        <v>654</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>147</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>192767</v>
+      </c>
+      <c r="C72" t="s">
+        <v>655</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>585</v>
+        <v>656</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>586</v>
+        <v>657</v>
       </c>
       <c r="J72" t="s">
-        <v>587</v>
+        <v>658</v>
       </c>
       <c r="K72" t="s">
-        <v>588</v>
+        <v>659</v>
       </c>
       <c r="L72" t="s">
-        <v>589</v>
+        <v>660</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>581</v>
+        <v>651</v>
       </c>
       <c r="O72" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7851,56 +8483,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>582</v>
+        <v>652</v>
       </c>
       <c r="X72" t="s">
-        <v>583</v>
+        <v>653</v>
       </c>
       <c r="Y72" t="s">
-        <v>590</v>
+        <v>661</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>147</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>48607</v>
+      </c>
+      <c r="C73" t="s">
+        <v>662</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>591</v>
+        <v>663</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>592</v>
+        <v>664</v>
       </c>
       <c r="J73" t="s">
-        <v>593</v>
+        <v>665</v>
       </c>
       <c r="K73" t="s">
-        <v>594</v>
+        <v>666</v>
       </c>
       <c r="L73" t="s">
-        <v>595</v>
+        <v>667</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>596</v>
+        <v>668</v>
       </c>
       <c r="O73" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7922,56 +8558,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>597</v>
+        <v>669</v>
       </c>
       <c r="X73" t="s">
-        <v>598</v>
+        <v>670</v>
       </c>
       <c r="Y73" t="s">
-        <v>599</v>
+        <v>671</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>147</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>192768</v>
+      </c>
+      <c r="C74" t="s">
+        <v>672</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>600</v>
+        <v>673</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>601</v>
+        <v>674</v>
       </c>
       <c r="J74" t="s">
-        <v>602</v>
+        <v>675</v>
       </c>
       <c r="K74" t="s">
-        <v>603</v>
+        <v>676</v>
       </c>
       <c r="L74" t="s">
-        <v>604</v>
+        <v>677</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>605</v>
+        <v>678</v>
       </c>
       <c r="O74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P74" t="n">
         <v>3</v>
@@ -7993,47 +8633,51 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>606</v>
+        <v>679</v>
       </c>
       <c r="X74" t="s">
-        <v>607</v>
+        <v>680</v>
       </c>
       <c r="Y74" t="s">
-        <v>608</v>
+        <v>681</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>147</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>192769</v>
+      </c>
+      <c r="C75" t="s">
+        <v>682</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>609</v>
+        <v>683</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>610</v>
+        <v>684</v>
       </c>
       <c r="J75" t="s">
-        <v>611</v>
+        <v>685</v>
       </c>
       <c r="K75" t="s">
-        <v>612</v>
+        <v>686</v>
       </c>
       <c r="L75" t="s">
-        <v>613</v>
+        <v>687</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
@@ -8060,47 +8704,51 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>614</v>
+        <v>688</v>
       </c>
       <c r="X75" t="s">
-        <v>615</v>
+        <v>689</v>
       </c>
       <c r="Y75" t="s">
-        <v>616</v>
+        <v>690</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>147</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>192770</v>
+      </c>
+      <c r="C76" t="s">
+        <v>691</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>617</v>
+        <v>692</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>618</v>
+        <v>693</v>
       </c>
       <c r="J76" t="s">
-        <v>619</v>
+        <v>694</v>
       </c>
       <c r="K76" t="s">
-        <v>620</v>
+        <v>695</v>
       </c>
       <c r="L76" t="s">
-        <v>621</v>
+        <v>696</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
@@ -8127,56 +8775,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>614</v>
+        <v>688</v>
       </c>
       <c r="X76" t="s">
-        <v>615</v>
+        <v>689</v>
       </c>
       <c r="Y76" t="s">
-        <v>622</v>
+        <v>697</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>147</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>192771</v>
+      </c>
+      <c r="C77" t="s">
+        <v>698</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>623</v>
+        <v>699</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>624</v>
+        <v>700</v>
       </c>
       <c r="J77" t="s">
-        <v>625</v>
+        <v>701</v>
       </c>
       <c r="K77" t="s">
-        <v>626</v>
+        <v>702</v>
       </c>
       <c r="L77" t="s">
-        <v>627</v>
+        <v>703</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
       </c>
       <c r="N77" t="s">
-        <v>628</v>
+        <v>704</v>
       </c>
       <c r="O77" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P77" t="n">
         <v>4</v>
@@ -8198,56 +8850,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>629</v>
+        <v>705</v>
       </c>
       <c r="X77" t="s">
-        <v>630</v>
+        <v>706</v>
       </c>
       <c r="Y77" t="s">
-        <v>631</v>
+        <v>707</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>147</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>87760</v>
+      </c>
+      <c r="C78" t="s">
+        <v>708</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>632</v>
+        <v>709</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>633</v>
+        <v>710</v>
       </c>
       <c r="J78" t="s">
-        <v>634</v>
+        <v>711</v>
       </c>
       <c r="K78" t="s">
-        <v>635</v>
+        <v>712</v>
       </c>
       <c r="L78" t="s">
-        <v>636</v>
+        <v>713</v>
       </c>
       <c r="M78" t="n">
         <v>2</v>
       </c>
       <c r="N78" t="s">
-        <v>637</v>
+        <v>714</v>
       </c>
       <c r="O78" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P78" t="n">
         <v>3</v>
@@ -8269,47 +8925,51 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>629</v>
+        <v>705</v>
       </c>
       <c r="X78" t="s">
-        <v>630</v>
+        <v>706</v>
       </c>
       <c r="Y78" t="s">
-        <v>638</v>
+        <v>715</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>147</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>192772</v>
+      </c>
+      <c r="C79" t="s">
+        <v>716</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>639</v>
+        <v>717</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>640</v>
+        <v>718</v>
       </c>
       <c r="J79" t="s">
-        <v>641</v>
+        <v>719</v>
       </c>
       <c r="K79" t="s">
-        <v>642</v>
+        <v>720</v>
       </c>
       <c r="L79" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="M79" t="n">
         <v>4</v>
@@ -8336,56 +8996,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>629</v>
+        <v>705</v>
       </c>
       <c r="X79" t="s">
-        <v>630</v>
+        <v>706</v>
       </c>
       <c r="Y79" t="s">
-        <v>644</v>
+        <v>722</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>147</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>8295</v>
+      </c>
+      <c r="C80" t="s">
+        <v>723</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>645</v>
+        <v>724</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>646</v>
+        <v>725</v>
       </c>
       <c r="J80" t="s">
-        <v>647</v>
+        <v>726</v>
       </c>
       <c r="K80" t="s">
-        <v>648</v>
+        <v>727</v>
       </c>
       <c r="L80" t="s">
-        <v>649</v>
+        <v>728</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>637</v>
+        <v>714</v>
       </c>
       <c r="O80" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="P80" t="n">
         <v>3</v>
@@ -8407,47 +9071,51 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>650</v>
+        <v>729</v>
       </c>
       <c r="X80" t="s">
-        <v>651</v>
+        <v>730</v>
       </c>
       <c r="Y80" t="s">
-        <v>652</v>
+        <v>731</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>147</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>71472</v>
+      </c>
+      <c r="C81" t="s">
+        <v>124</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>653</v>
+        <v>732</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>654</v>
+        <v>733</v>
       </c>
       <c r="J81" t="s">
-        <v>647</v>
+        <v>726</v>
       </c>
       <c r="K81" t="s">
-        <v>655</v>
+        <v>734</v>
       </c>
       <c r="L81" t="s">
-        <v>656</v>
+        <v>735</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
@@ -8474,47 +9142,51 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>650</v>
+        <v>729</v>
       </c>
       <c r="X81" t="s">
-        <v>651</v>
+        <v>730</v>
       </c>
       <c r="Y81" t="s">
-        <v>657</v>
+        <v>736</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>147</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>192773</v>
+      </c>
+      <c r="C82" t="s">
+        <v>737</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>658</v>
+        <v>738</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>659</v>
+        <v>739</v>
       </c>
       <c r="J82" t="s">
-        <v>660</v>
+        <v>740</v>
       </c>
       <c r="K82" t="s">
-        <v>661</v>
+        <v>741</v>
       </c>
       <c r="L82" t="s">
-        <v>662</v>
+        <v>742</v>
       </c>
       <c r="M82" t="n">
         <v>4</v>
@@ -8543,50 +9215,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>663</v>
+        <v>743</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>147</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>192774</v>
+      </c>
+      <c r="C83" t="s">
+        <v>744</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>664</v>
+        <v>745</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>665</v>
+        <v>746</v>
       </c>
       <c r="J83" t="s">
-        <v>666</v>
+        <v>747</v>
       </c>
       <c r="K83" t="s">
-        <v>667</v>
+        <v>748</v>
       </c>
       <c r="L83" t="s">
-        <v>668</v>
+        <v>749</v>
       </c>
       <c r="M83" t="n">
         <v>4</v>
       </c>
       <c r="N83" t="s">
-        <v>669</v>
+        <v>750</v>
       </c>
       <c r="O83" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="P83" t="n">
         <v>4</v>
@@ -8610,50 +9286,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>670</v>
+        <v>751</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>147</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>192775</v>
+      </c>
+      <c r="C84" t="s">
+        <v>752</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>671</v>
+        <v>753</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>672</v>
+        <v>754</v>
       </c>
       <c r="J84" t="s">
-        <v>673</v>
+        <v>755</v>
       </c>
       <c r="K84" t="s">
-        <v>674</v>
+        <v>756</v>
       </c>
       <c r="L84" t="s">
-        <v>675</v>
+        <v>757</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>676</v>
+        <v>758</v>
       </c>
       <c r="O84" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -8677,50 +9357,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>675</v>
+        <v>757</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>147</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>192776</v>
+      </c>
+      <c r="C85" t="s">
+        <v>759</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>677</v>
+        <v>760</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>678</v>
+        <v>761</v>
       </c>
       <c r="J85" t="s">
-        <v>679</v>
+        <v>762</v>
       </c>
       <c r="K85" t="s">
-        <v>680</v>
+        <v>763</v>
       </c>
       <c r="L85" t="s">
-        <v>681</v>
+        <v>764</v>
       </c>
       <c r="M85" t="n">
         <v>4</v>
       </c>
       <c r="N85" t="s">
-        <v>682</v>
+        <v>765</v>
       </c>
       <c r="O85" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P85" t="n">
         <v>3</v>
@@ -8744,50 +9428,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>681</v>
+        <v>764</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>147</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>7005</v>
+      </c>
+      <c r="C86" t="s">
+        <v>766</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>683</v>
+        <v>767</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>684</v>
+        <v>768</v>
       </c>
       <c r="J86" t="s">
-        <v>685</v>
+        <v>769</v>
       </c>
       <c r="K86" t="s">
-        <v>686</v>
+        <v>770</v>
       </c>
       <c r="L86" t="s">
-        <v>687</v>
+        <v>771</v>
       </c>
       <c r="M86" t="n">
         <v>4</v>
       </c>
       <c r="N86" t="s">
-        <v>669</v>
+        <v>750</v>
       </c>
       <c r="O86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P86" t="n">
         <v>4</v>
@@ -8811,50 +9499,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>688</v>
+        <v>772</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>147</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>192777</v>
+      </c>
+      <c r="C87" t="s">
+        <v>773</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>689</v>
+        <v>774</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>690</v>
+        <v>775</v>
       </c>
       <c r="J87" t="s">
-        <v>691</v>
+        <v>776</v>
       </c>
       <c r="K87" t="s">
-        <v>692</v>
+        <v>777</v>
       </c>
       <c r="L87" t="s">
-        <v>693</v>
+        <v>778</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>669</v>
+        <v>750</v>
       </c>
       <c r="O87" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P87" t="n">
         <v>4</v>
@@ -8878,50 +9570,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>693</v>
+        <v>778</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>147</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>192778</v>
+      </c>
+      <c r="C88" t="s">
+        <v>779</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>694</v>
+        <v>780</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>695</v>
+        <v>781</v>
       </c>
       <c r="J88" t="s">
-        <v>696</v>
+        <v>782</v>
       </c>
       <c r="K88" t="s">
-        <v>697</v>
+        <v>783</v>
       </c>
       <c r="L88" t="s">
-        <v>698</v>
+        <v>784</v>
       </c>
       <c r="M88" t="n">
         <v>4</v>
       </c>
       <c r="N88" t="s">
-        <v>669</v>
+        <v>750</v>
       </c>
       <c r="O88" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="P88" t="n">
         <v>3</v>
@@ -8945,50 +9641,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>699</v>
+        <v>785</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>147</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>192779</v>
+      </c>
+      <c r="C89" t="s">
+        <v>786</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>700</v>
+        <v>787</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>701</v>
+        <v>788</v>
       </c>
       <c r="J89" t="s">
-        <v>702</v>
+        <v>789</v>
       </c>
       <c r="K89" t="s">
-        <v>703</v>
+        <v>790</v>
       </c>
       <c r="L89" t="s">
-        <v>704</v>
+        <v>791</v>
       </c>
       <c r="M89" t="n">
         <v>4</v>
       </c>
       <c r="N89" t="s">
-        <v>705</v>
+        <v>792</v>
       </c>
       <c r="O89" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -9012,50 +9712,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>706</v>
+        <v>793</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>147</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>321</v>
+      </c>
+      <c r="C90" t="s">
+        <v>794</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>707</v>
+        <v>795</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>708</v>
+        <v>796</v>
       </c>
       <c r="J90" t="s">
-        <v>709</v>
+        <v>797</v>
       </c>
       <c r="K90" t="s">
-        <v>710</v>
+        <v>798</v>
       </c>
       <c r="L90" t="s">
-        <v>711</v>
+        <v>799</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>705</v>
+        <v>792</v>
       </c>
       <c r="O90" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P90" t="n">
         <v>3</v>
@@ -9079,50 +9783,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>711</v>
+        <v>799</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>147</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>192780</v>
+      </c>
+      <c r="C91" t="s">
+        <v>800</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>712</v>
+        <v>801</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>713</v>
+        <v>802</v>
       </c>
       <c r="J91" t="s">
-        <v>714</v>
+        <v>803</v>
       </c>
       <c r="K91" t="s">
-        <v>715</v>
+        <v>804</v>
       </c>
       <c r="L91" t="s">
-        <v>716</v>
+        <v>805</v>
       </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
       <c r="N91" t="s">
-        <v>705</v>
+        <v>792</v>
       </c>
       <c r="O91" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="P91" t="n">
         <v>1</v>
@@ -9144,56 +9852,60 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>717</v>
+        <v>806</v>
       </c>
       <c r="X91" t="s">
-        <v>718</v>
+        <v>807</v>
       </c>
       <c r="Y91" t="s">
-        <v>719</v>
+        <v>808</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>147</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>10324</v>
+      </c>
+      <c r="C92" t="s">
+        <v>809</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>721</v>
+        <v>811</v>
       </c>
       <c r="J92" t="s">
-        <v>722</v>
+        <v>812</v>
       </c>
       <c r="K92" t="s">
-        <v>723</v>
+        <v>813</v>
       </c>
       <c r="L92" t="s">
-        <v>724</v>
+        <v>814</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
       </c>
       <c r="N92" t="s">
-        <v>725</v>
+        <v>815</v>
       </c>
       <c r="O92" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="P92" t="n">
         <v>5</v>
@@ -9217,50 +9929,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>724</v>
+        <v>814</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>147</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>192781</v>
+      </c>
+      <c r="C93" t="s">
+        <v>816</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>726</v>
+        <v>817</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>727</v>
+        <v>818</v>
       </c>
       <c r="J93" t="s">
-        <v>728</v>
+        <v>819</v>
       </c>
       <c r="K93" t="s">
-        <v>729</v>
+        <v>820</v>
       </c>
       <c r="L93" t="s">
-        <v>730</v>
+        <v>821</v>
       </c>
       <c r="M93" t="n">
         <v>3</v>
       </c>
       <c r="N93" t="s">
-        <v>725</v>
+        <v>815</v>
       </c>
       <c r="O93" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P93" t="n">
         <v>3</v>
@@ -9284,50 +10000,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>731</v>
+        <v>822</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>147</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>192782</v>
+      </c>
+      <c r="C94" t="s">
+        <v>823</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>732</v>
+        <v>824</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>733</v>
+        <v>825</v>
       </c>
       <c r="J94" t="s">
-        <v>734</v>
+        <v>826</v>
       </c>
       <c r="K94" t="s">
-        <v>735</v>
+        <v>827</v>
       </c>
       <c r="L94" t="s">
-        <v>736</v>
+        <v>828</v>
       </c>
       <c r="M94" t="n">
         <v>4</v>
       </c>
       <c r="N94" t="s">
-        <v>725</v>
+        <v>815</v>
       </c>
       <c r="O94" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P94" t="n">
         <v>5</v>
@@ -9349,56 +10069,60 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>737</v>
+        <v>829</v>
       </c>
       <c r="X94" t="s">
-        <v>738</v>
+        <v>830</v>
       </c>
       <c r="Y94" t="s">
-        <v>739</v>
+        <v>831</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>147</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>192783</v>
+      </c>
+      <c r="C95" t="s">
+        <v>832</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>740</v>
+        <v>833</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>741</v>
+        <v>834</v>
       </c>
       <c r="J95" t="s">
-        <v>742</v>
+        <v>835</v>
       </c>
       <c r="K95" t="s">
-        <v>743</v>
+        <v>836</v>
       </c>
       <c r="L95" t="s">
-        <v>744</v>
+        <v>837</v>
       </c>
       <c r="M95" t="n">
         <v>3</v>
       </c>
       <c r="N95" t="s">
-        <v>745</v>
+        <v>838</v>
       </c>
       <c r="O95" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P95" t="n">
         <v>3</v>
@@ -9422,50 +10146,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>746</v>
+        <v>839</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>147</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>192784</v>
+      </c>
+      <c r="C96" t="s">
+        <v>840</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>747</v>
+        <v>841</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>748</v>
+        <v>842</v>
       </c>
       <c r="J96" t="s">
-        <v>749</v>
+        <v>843</v>
       </c>
       <c r="K96" t="s">
-        <v>750</v>
+        <v>844</v>
       </c>
       <c r="L96" t="s">
-        <v>751</v>
+        <v>845</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
       </c>
       <c r="N96" t="s">
-        <v>745</v>
+        <v>838</v>
       </c>
       <c r="O96" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P96" t="n">
         <v>5</v>
@@ -9489,50 +10217,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>751</v>
+        <v>845</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>147</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>192785</v>
+      </c>
+      <c r="C97" t="s">
+        <v>846</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>752</v>
+        <v>847</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>753</v>
+        <v>848</v>
       </c>
       <c r="J97" t="s">
-        <v>754</v>
+        <v>849</v>
       </c>
       <c r="K97" t="s">
-        <v>755</v>
+        <v>850</v>
       </c>
       <c r="L97" t="s">
-        <v>756</v>
+        <v>851</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
       <c r="N97" t="s">
-        <v>745</v>
+        <v>838</v>
       </c>
       <c r="O97" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -9554,56 +10286,60 @@
         <v>0</v>
       </c>
       <c r="W97" t="s">
-        <v>757</v>
+        <v>852</v>
       </c>
       <c r="X97" t="s">
-        <v>758</v>
+        <v>853</v>
       </c>
       <c r="Y97" t="s">
-        <v>759</v>
+        <v>854</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>147</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>192786</v>
+      </c>
+      <c r="C98" t="s">
+        <v>855</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>760</v>
+        <v>856</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>761</v>
+        <v>857</v>
       </c>
       <c r="J98" t="s">
-        <v>762</v>
+        <v>858</v>
       </c>
       <c r="K98" t="s">
-        <v>763</v>
+        <v>859</v>
       </c>
       <c r="L98" t="s">
-        <v>764</v>
+        <v>860</v>
       </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
       <c r="N98" t="s">
-        <v>765</v>
+        <v>861</v>
       </c>
       <c r="O98" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="P98" t="s"/>
       <c r="Q98" t="s"/>
@@ -9615,56 +10351,60 @@
         <v>0</v>
       </c>
       <c r="W98" t="s">
-        <v>766</v>
+        <v>862</v>
       </c>
       <c r="X98" t="s">
-        <v>767</v>
+        <v>863</v>
       </c>
       <c r="Y98" t="s">
-        <v>768</v>
+        <v>864</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>147</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>192787</v>
+      </c>
+      <c r="C99" t="s">
+        <v>865</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>769</v>
+        <v>866</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>770</v>
+        <v>867</v>
       </c>
       <c r="J99" t="s">
-        <v>771</v>
+        <v>868</v>
       </c>
       <c r="K99" t="s">
-        <v>772</v>
+        <v>869</v>
       </c>
       <c r="L99" t="s">
-        <v>773</v>
+        <v>870</v>
       </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
       <c r="N99" t="s">
-        <v>774</v>
+        <v>871</v>
       </c>
       <c r="O99" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P99" t="n">
         <v>1</v>
@@ -9686,56 +10426,60 @@
         <v>0</v>
       </c>
       <c r="W99" t="s">
-        <v>775</v>
+        <v>872</v>
       </c>
       <c r="X99" t="s">
-        <v>776</v>
+        <v>873</v>
       </c>
       <c r="Y99" t="s">
-        <v>777</v>
+        <v>874</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>147</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>1463</v>
+      </c>
+      <c r="C100" t="s">
+        <v>875</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>778</v>
+        <v>876</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>779</v>
+        <v>877</v>
       </c>
       <c r="J100" t="s">
-        <v>780</v>
+        <v>878</v>
       </c>
       <c r="K100" t="s">
-        <v>781</v>
+        <v>879</v>
       </c>
       <c r="L100" t="s">
-        <v>782</v>
+        <v>880</v>
       </c>
       <c r="M100" t="n">
         <v>4</v>
       </c>
       <c r="N100" t="s">
-        <v>774</v>
+        <v>871</v>
       </c>
       <c r="O100" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P100" t="n">
         <v>3</v>
@@ -9759,50 +10503,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>782</v>
+        <v>880</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>147</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>192788</v>
+      </c>
+      <c r="C101" t="s">
+        <v>881</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>783</v>
+        <v>882</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>784</v>
+        <v>883</v>
       </c>
       <c r="J101" t="s">
-        <v>785</v>
+        <v>884</v>
       </c>
       <c r="K101" t="s">
-        <v>786</v>
+        <v>885</v>
       </c>
       <c r="L101" t="s">
-        <v>787</v>
+        <v>886</v>
       </c>
       <c r="M101" t="n">
         <v>3</v>
       </c>
       <c r="N101" t="s">
-        <v>788</v>
+        <v>887</v>
       </c>
       <c r="O101" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="P101" t="n">
         <v>3</v>
@@ -9826,50 +10574,54 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>789</v>
+        <v>888</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>147</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>192789</v>
+      </c>
+      <c r="C102" t="s">
+        <v>889</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>790</v>
+        <v>890</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>791</v>
+        <v>891</v>
       </c>
       <c r="J102" t="s">
-        <v>792</v>
+        <v>892</v>
       </c>
       <c r="K102" t="s">
-        <v>793</v>
+        <v>893</v>
       </c>
       <c r="L102" t="s">
-        <v>794</v>
+        <v>894</v>
       </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
       <c r="N102" t="s">
-        <v>795</v>
+        <v>895</v>
       </c>
       <c r="O102" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P102" t="n">
         <v>3</v>
@@ -9893,50 +10645,54 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>796</v>
+        <v>896</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>147</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>192790</v>
+      </c>
+      <c r="C103" t="s">
+        <v>897</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>797</v>
+        <v>898</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>798</v>
+        <v>899</v>
       </c>
       <c r="J103" t="s">
-        <v>792</v>
+        <v>892</v>
       </c>
       <c r="K103" t="s">
-        <v>799</v>
+        <v>900</v>
       </c>
       <c r="L103" t="s">
-        <v>800</v>
+        <v>901</v>
       </c>
       <c r="M103" t="n">
         <v>3</v>
       </c>
       <c r="N103" t="s">
-        <v>788</v>
+        <v>887</v>
       </c>
       <c r="O103" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P103" t="n">
         <v>3</v>
@@ -9960,50 +10716,54 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>800</v>
+        <v>901</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>147</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>192791</v>
+      </c>
+      <c r="C104" t="s">
+        <v>902</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>801</v>
+        <v>903</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>802</v>
+        <v>904</v>
       </c>
       <c r="J104" t="s">
-        <v>803</v>
+        <v>905</v>
       </c>
       <c r="K104" t="s">
-        <v>804</v>
+        <v>906</v>
       </c>
       <c r="L104" t="s">
-        <v>805</v>
+        <v>907</v>
       </c>
       <c r="M104" t="n">
         <v>5</v>
       </c>
       <c r="N104" t="s">
-        <v>806</v>
+        <v>908</v>
       </c>
       <c r="O104" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P104" t="n">
         <v>5</v>
@@ -10023,50 +10783,54 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>805</v>
+        <v>907</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>147</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>192792</v>
+      </c>
+      <c r="C105" t="s">
+        <v>909</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>807</v>
+        <v>910</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>808</v>
+        <v>911</v>
       </c>
       <c r="J105" t="s">
-        <v>809</v>
+        <v>912</v>
       </c>
       <c r="K105" t="s">
-        <v>810</v>
+        <v>913</v>
       </c>
       <c r="L105" t="s">
-        <v>811</v>
+        <v>914</v>
       </c>
       <c r="M105" t="n">
         <v>5</v>
       </c>
       <c r="N105" t="s">
-        <v>812</v>
+        <v>915</v>
       </c>
       <c r="O105" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P105" t="n">
         <v>5</v>
@@ -10090,50 +10854,54 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>811</v>
+        <v>914</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>147</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>192793</v>
+      </c>
+      <c r="C106" t="s">
+        <v>916</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>813</v>
+        <v>917</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>814</v>
+        <v>918</v>
       </c>
       <c r="J106" t="s">
-        <v>815</v>
+        <v>919</v>
       </c>
       <c r="K106" t="s">
-        <v>816</v>
+        <v>920</v>
       </c>
       <c r="L106" t="s">
-        <v>817</v>
+        <v>921</v>
       </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
       <c r="N106" t="s">
-        <v>818</v>
+        <v>922</v>
       </c>
       <c r="O106" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P106" t="n">
         <v>1</v>
@@ -10157,50 +10925,54 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>819</v>
+        <v>923</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>147</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>192794</v>
+      </c>
+      <c r="C107" t="s">
+        <v>924</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>820</v>
+        <v>925</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>821</v>
+        <v>926</v>
       </c>
       <c r="J107" t="s">
-        <v>822</v>
+        <v>927</v>
       </c>
       <c r="K107" t="s">
-        <v>823</v>
+        <v>928</v>
       </c>
       <c r="L107" t="s">
-        <v>824</v>
+        <v>929</v>
       </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
       <c r="N107" t="s">
-        <v>825</v>
+        <v>930</v>
       </c>
       <c r="O107" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P107" t="n">
         <v>1</v>
@@ -10224,50 +10996,54 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>824</v>
+        <v>929</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>147</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>192795</v>
+      </c>
+      <c r="C108" t="s">
+        <v>931</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>826</v>
+        <v>932</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>827</v>
+        <v>933</v>
       </c>
       <c r="J108" t="s">
-        <v>828</v>
+        <v>934</v>
       </c>
       <c r="K108" t="s">
-        <v>829</v>
+        <v>935</v>
       </c>
       <c r="L108" t="s">
-        <v>830</v>
+        <v>936</v>
       </c>
       <c r="M108" t="n">
         <v>2</v>
       </c>
       <c r="N108" t="s">
-        <v>831</v>
+        <v>937</v>
       </c>
       <c r="O108" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P108" t="n">
         <v>2</v>
@@ -10291,50 +11067,54 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>830</v>
+        <v>936</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>147</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>192796</v>
+      </c>
+      <c r="C109" t="s">
+        <v>938</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>832</v>
+        <v>939</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>833</v>
+        <v>940</v>
       </c>
       <c r="J109" t="s">
-        <v>834</v>
+        <v>941</v>
       </c>
       <c r="K109" t="s">
-        <v>835</v>
+        <v>942</v>
       </c>
       <c r="L109" t="s">
-        <v>836</v>
+        <v>943</v>
       </c>
       <c r="M109" t="n">
         <v>3</v>
       </c>
       <c r="N109" t="s">
-        <v>837</v>
+        <v>944</v>
       </c>
       <c r="O109" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P109" t="n">
         <v>3</v>
@@ -10358,50 +11138,54 @@
       <c r="W109" t="s"/>
       <c r="X109" t="s"/>
       <c r="Y109" t="s">
-        <v>836</v>
+        <v>943</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>147</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>192797</v>
+      </c>
+      <c r="C110" t="s">
+        <v>945</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>838</v>
+        <v>946</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>839</v>
+        <v>947</v>
       </c>
       <c r="J110" t="s">
-        <v>840</v>
+        <v>948</v>
       </c>
       <c r="K110" t="s">
-        <v>841</v>
+        <v>949</v>
       </c>
       <c r="L110" t="s">
-        <v>842</v>
+        <v>950</v>
       </c>
       <c r="M110" t="n">
         <v>4</v>
       </c>
       <c r="N110" t="s">
-        <v>843</v>
+        <v>951</v>
       </c>
       <c r="O110" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P110" t="n">
         <v>4</v>
@@ -10423,50 +11207,54 @@
       <c r="W110" t="s"/>
       <c r="X110" t="s"/>
       <c r="Y110" t="s">
-        <v>842</v>
+        <v>950</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>147</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>192798</v>
+      </c>
+      <c r="C111" t="s">
+        <v>952</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>844</v>
+        <v>953</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>845</v>
+        <v>954</v>
       </c>
       <c r="J111" t="s">
-        <v>846</v>
+        <v>955</v>
       </c>
       <c r="K111" t="s">
-        <v>847</v>
+        <v>956</v>
       </c>
       <c r="L111" t="s">
-        <v>848</v>
+        <v>957</v>
       </c>
       <c r="M111" t="n">
         <v>5</v>
       </c>
       <c r="N111" t="s">
-        <v>849</v>
+        <v>958</v>
       </c>
       <c r="O111" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P111" t="n">
         <v>5</v>
@@ -10490,50 +11278,54 @@
       <c r="W111" t="s"/>
       <c r="X111" t="s"/>
       <c r="Y111" t="s">
-        <v>850</v>
+        <v>959</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>147</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>192799</v>
+      </c>
+      <c r="C112" t="s">
+        <v>960</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>851</v>
+        <v>961</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I112" t="s">
-        <v>852</v>
+        <v>962</v>
       </c>
       <c r="J112" t="s">
-        <v>853</v>
+        <v>963</v>
       </c>
       <c r="K112" t="s">
-        <v>854</v>
+        <v>964</v>
       </c>
       <c r="L112" t="s">
-        <v>855</v>
+        <v>965</v>
       </c>
       <c r="M112" t="n">
         <v>5</v>
       </c>
       <c r="N112" t="s">
-        <v>856</v>
+        <v>966</v>
       </c>
       <c r="O112" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P112" t="n">
         <v>5</v>
@@ -10557,50 +11349,54 @@
       <c r="W112" t="s"/>
       <c r="X112" t="s"/>
       <c r="Y112" t="s">
-        <v>855</v>
+        <v>965</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>147</v>
       </c>
-      <c r="B113" t="s"/>
-      <c r="C113" t="s"/>
+      <c r="B113" t="n">
+        <v>192800</v>
+      </c>
+      <c r="C113" t="s">
+        <v>967</v>
+      </c>
       <c r="D113" t="n">
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F113" t="s">
-        <v>857</v>
+        <v>968</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I113" t="s">
-        <v>858</v>
+        <v>969</v>
       </c>
       <c r="J113" t="s">
-        <v>859</v>
+        <v>970</v>
       </c>
       <c r="K113" t="s">
-        <v>860</v>
+        <v>971</v>
       </c>
       <c r="L113" t="s">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="M113" t="n">
         <v>3</v>
       </c>
       <c r="N113" t="s">
-        <v>862</v>
+        <v>973</v>
       </c>
       <c r="O113" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="P113" t="n">
         <v>4</v>
@@ -10624,50 +11420,54 @@
       <c r="W113" t="s"/>
       <c r="X113" t="s"/>
       <c r="Y113" t="s">
-        <v>863</v>
+        <v>974</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>147</v>
       </c>
-      <c r="B114" t="s"/>
-      <c r="C114" t="s"/>
+      <c r="B114" t="n">
+        <v>192801</v>
+      </c>
+      <c r="C114" t="s">
+        <v>975</v>
+      </c>
       <c r="D114" t="n">
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F114" t="s">
-        <v>864</v>
+        <v>976</v>
       </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I114" t="s">
-        <v>865</v>
+        <v>977</v>
       </c>
       <c r="J114" t="s">
-        <v>866</v>
+        <v>978</v>
       </c>
       <c r="K114" t="s">
-        <v>867</v>
+        <v>979</v>
       </c>
       <c r="L114" t="s">
-        <v>868</v>
+        <v>980</v>
       </c>
       <c r="M114" t="n">
         <v>3</v>
       </c>
       <c r="N114" t="s">
-        <v>869</v>
+        <v>981</v>
       </c>
       <c r="O114" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P114" t="n">
         <v>3</v>
@@ -10691,41 +11491,45 @@
       <c r="W114" t="s"/>
       <c r="X114" t="s"/>
       <c r="Y114" t="s">
-        <v>870</v>
+        <v>982</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>147</v>
       </c>
-      <c r="B115" t="s"/>
-      <c r="C115" t="s"/>
+      <c r="B115" t="n">
+        <v>192802</v>
+      </c>
+      <c r="C115" t="s">
+        <v>983</v>
+      </c>
       <c r="D115" t="n">
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F115" t="s">
-        <v>871</v>
+        <v>984</v>
       </c>
       <c r="G115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I115" t="s">
-        <v>872</v>
+        <v>985</v>
       </c>
       <c r="J115" t="s">
-        <v>873</v>
+        <v>986</v>
       </c>
       <c r="K115" t="s">
-        <v>874</v>
+        <v>987</v>
       </c>
       <c r="L115" t="s">
-        <v>875</v>
+        <v>988</v>
       </c>
       <c r="M115" t="n">
         <v>1</v>
@@ -10744,41 +11548,45 @@
       <c r="W115" t="s"/>
       <c r="X115" t="s"/>
       <c r="Y115" t="s">
-        <v>876</v>
+        <v>989</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>147</v>
       </c>
-      <c r="B116" t="s"/>
-      <c r="C116" t="s"/>
+      <c r="B116" t="n">
+        <v>192803</v>
+      </c>
+      <c r="C116" t="s">
+        <v>990</v>
+      </c>
       <c r="D116" t="n">
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F116" t="s">
-        <v>877</v>
+        <v>991</v>
       </c>
       <c r="G116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I116" t="s">
-        <v>878</v>
+        <v>992</v>
       </c>
       <c r="J116" t="s">
-        <v>879</v>
+        <v>993</v>
       </c>
       <c r="K116" t="s">
-        <v>880</v>
+        <v>994</v>
       </c>
       <c r="L116" t="s">
-        <v>881</v>
+        <v>995</v>
       </c>
       <c r="M116" t="n">
         <v>5</v>
@@ -10805,41 +11613,45 @@
       <c r="W116" t="s"/>
       <c r="X116" t="s"/>
       <c r="Y116" t="s">
-        <v>882</v>
+        <v>996</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
         <v>147</v>
       </c>
-      <c r="B117" t="s"/>
-      <c r="C117" t="s"/>
+      <c r="B117" t="n">
+        <v>192804</v>
+      </c>
+      <c r="C117" t="s">
+        <v>997</v>
+      </c>
       <c r="D117" t="n">
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F117" t="s">
-        <v>883</v>
+        <v>998</v>
       </c>
       <c r="G117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I117" t="s">
-        <v>884</v>
+        <v>999</v>
       </c>
       <c r="J117" t="s">
-        <v>885</v>
+        <v>1000</v>
       </c>
       <c r="K117" t="s">
-        <v>886</v>
+        <v>1001</v>
       </c>
       <c r="L117" t="s">
-        <v>887</v>
+        <v>1002</v>
       </c>
       <c r="M117" t="n">
         <v>4</v>
@@ -10866,41 +11678,45 @@
       <c r="W117" t="s"/>
       <c r="X117" t="s"/>
       <c r="Y117" t="s">
-        <v>888</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
         <v>147</v>
       </c>
-      <c r="B118" t="s"/>
-      <c r="C118" t="s"/>
+      <c r="B118" t="n">
+        <v>192805</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1004</v>
+      </c>
       <c r="D118" t="n">
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F118" t="s">
-        <v>889</v>
+        <v>1005</v>
       </c>
       <c r="G118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I118" t="s">
-        <v>890</v>
+        <v>1006</v>
       </c>
       <c r="J118" t="s">
-        <v>891</v>
+        <v>1007</v>
       </c>
       <c r="K118" t="s">
-        <v>892</v>
+        <v>1008</v>
       </c>
       <c r="L118" t="s">
-        <v>893</v>
+        <v>1009</v>
       </c>
       <c r="M118" t="n">
         <v>4</v>
@@ -10925,7 +11741,7 @@
       <c r="W118" t="s"/>
       <c r="X118" t="s"/>
       <c r="Y118" t="s">
-        <v>894</v>
+        <v>1010</v>
       </c>
     </row>
   </sheetData>
